--- a/data/hotels_by_city/Dallas/Dallas_shard_147.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_147.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Erickwiggins1</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I have been staying here on weekend (and sometimes weekday visits) to FW for years. It's easy on/off to I30. It's just beyond the exits for the cultural district - so it's very quiet and on the weekends. It's reasonably priced always but I often get FANTASTIC RATES!  I usually book them through hotels.com. It's clean and comfy - cozy and quiet - offers a mini 24 hour snack shop downstairs by the desk and has a small grill for breakfast or a light dinner in the evenings. More</t>
   </si>
   <si>
+    <t>sunseeker68_19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r497689033-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Great location for visiting Lockheed at a good price.Clean modern hotel with pool and spa + limited fitness centre.Great choice of healthy and full-up breakfasts lunches and salads prepared on the spot. Salads were great, healthy and tasty. Dinner options great and fairly priced.My room was clean spacious and bed comfortable.Highly recommended - Staff were very friendly.Only negative was the noisy aircon in my room which ran off and on through the night.More</t>
   </si>
   <si>
+    <t>1twangster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r496830655-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>I had my door open to the patio last night for some fresh air.  People were smoking by the pool and the smoke was entering my room.  There's a big "No Smoking" sign on the door leading to the pool area.The internet service here is non-functional if you need to view videos or upload files.  Couldn't even scroll through facebook without it locking up.  I inquired at the front desk.  The girl told me she could provide a number to call and have the speed increased.  I asked her how that might work.  She said the service in this area is slow and they can do something to speed it up.  Unacceptable in a $112 room.Breakfast the next morning was a bust.  Undercooked bacon.  Barely toasted bread and seasoned potatoes.  I detest seasoned potatoes.  The manager did offer to cook the bacon more but that never has a pleasant result.  No offer to comp or reduce the check.Nice room though, except for all the warts.More</t>
   </si>
   <si>
+    <t>jpmcdonough</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r492475819-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>This hotel is just off I-30 at the Green Oaks exit. It comes up on you quick and the entrance is hard to see. The hotel is pretty standard for the Marriott Courtyard experience and was not too noisy despite being right on I-30. The room was pretty small but adequate. The TV worked okay but some of the channels you would expect were not there (such as the PBS station). The coffee setup in the room was a bit lacking in that they gave you one decaf and one regular. For two people.The in-room AC was pretty noisy.Parking is good and there is access through the back door that saves steps.  There is a small exercise room with one elliptical and a couple of treadmills and some free weights. There is a tiny outdoor pool. The Bistro restaurant is the same as any Courtyard, but in this one the manager refuses to give free refills of coffee.  Never ran into that before. Deduct one star.Free wi-fi, but dreadfully slow. Deduct one more star.More</t>
   </si>
   <si>
+    <t>Christy_Luv2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r473358060-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>Our final hotel on our 2-week tour of the Deep South.  No safe, although there are coffee facilities, along with a microwave and fridge in the room.  Watch yourself in the bath-can be slippy if you're in the shower-no bathmat!  Room was clean and staff generally friendly. ENJOY!More</t>
   </si>
   <si>
+    <t>skm16521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r465198753-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Love the ability to check in online &amp; just swing by &amp; pickup the key! Requested 1st floor room when reservation was made in early January &amp; request was fulfilled. Thank you! As a new rewards member, nice touch giving the chocolate bar with your name printed on it. Make it personal. Bed was great, linens were nice, room was clean. Refrigerator &amp; coffee maker in room. Only con: bathroom counter was really small. Not enough space for 2 people. Great location for me! Will return!More</t>
   </si>
   <si>
+    <t>UTAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r451026143-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>This property has very friendly staff with slightly dated facilities and rooms. Everything was clean and the lobby appears to have been recently renovated. The room had a comfortable bed and a sofa that looked like it could go in a hotel room, a doctor's office, or an airport lounge. The bathroom had a small sink and a tub/commode in another small room. The water pressure was good though, surprisingly, the hot water did not last particularly long. This may have been a one time thing; it was very cold outside and the property seemed full; perhaps the boiler could not keep up.The towels were fresh and clean. The sheets seemed fresh and clean too.More</t>
   </si>
   <si>
+    <t>DC196</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r432532412-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>In town for an event, and wished we'd shopped the Marriott family. Higher rated Fairfield just across the highway and a Springhill closer to our event.  Our own fault Rooms are clean but bathrooms are old and cramped and this is the first time I had a phone charger literally fall out of the socket.   I hate loose electrical outlets.Most modern part of the hotel is their new profit center, sorry, I mean Bistro.  Only Marriott brand to not throw in breakfast as part of the deal.  Our free Platinum welcome gift was a small Starbucks coffee.  Color us underwhelmed, especially when breakfast for two adds $20 to the already pretty high room rate More</t>
   </si>
   <si>
+    <t>ColoradoTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r425964544-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>Looks like it was recently updated, but as the picture shows the outside windows need some love.Friendly staff, clean room.  The breakfast is good, Starbucks in Lobby (can't pay with Starbucks application, BTW), location is right off freeway.</t>
   </si>
   <si>
+    <t>Shawna P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r409953646-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>I stayed one night at this Courtyard by Marriott while in Ft. Worth for business. This hotel is conveniently located right off Rt 30 and easy to locate. You can immediately see the age of the hotel. There has been attempts to update and modernize the lobby but the rooms really show the age, mostly in the bathrooms and carpets. With that said, my room was clean and well appointed. I'm a Marriott Club member and arrived to a complementary welcome chocolate bar with my name on it and thought that was a cute touch. My bed was super comfy and the air conditioning worked great. My stay was really comfortable, so in the end the aged hotel didn't matter. Everyone at the front desk was very friendly and even made suggestions for dinner which we took and we're happy with. There is an outdoor pool area although it's quite small and I didn't see anyone using it during my stay. I'd recommend this hotel to someone looking for comfy and practical.More</t>
   </si>
   <si>
+    <t>Lynn O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r406358738-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Steve Kimberly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r395404469-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -447,6 +483,9 @@
     <t>The hotel lobby and grounds are clean and maintain very well. They do not have free continental breakfast but they do have a Starbucks bistro. My room was clean and the bed was comfortable, it also had a microwave and a mini fridge. The hotel had free wifi but you have to pay extra for the faster version. The maid service was great, every morning they replenish the coffee and the soap and shampoo. The hotel staff was very friendly greeted you every time you walk in and wished you a good day when you leave. My room had a microwave and a mini fridge. The only con is no free breakfast.More</t>
   </si>
   <si>
+    <t>enatal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r394758945-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>Hotel is very clean. Rooms are well maintained. Rooms equipped with refrigerator and mini microwave oven.10-minute walk from Ridgemar Mall. Facilities are well maintained and common areas are also clean. WiFi is outstanding and does not need daily login to connect.More</t>
   </si>
   <si>
+    <t>mmitch1210</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r383190470-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>I had to wake my daughter up out of her sleep.The maid was here to clean. I told her we would come back. 2 hours later. We come back and room is still not clean. The problem is they hire maids that don't speak English. So there is a communication problem. We booked here for 1 week. When you pay that much money the least they can do is clean your room. SMH never again!!!!More</t>
   </si>
   <si>
+    <t>PAUL R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r375181714-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -516,6 +561,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>hank3512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r365498001-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,6 +591,9 @@
     <t>The hotel is fine but the TV's are old and you cannot hook up a PS4 to the TV. I stay 100+ nights a year for business and always bring my PS4 because I don't watch TV. I won't stay here again until they get new TV's.More</t>
   </si>
   <si>
+    <t>Jon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r356404176-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,6 +621,9 @@
     <t>OK - may not be the newest hotel around, but it is clean, has an OK lobby, front desk help was very good and the room is very large and newly renovated.  Booked on priceline for $61 and it is worth every penny.  Bathroom free of any mold, tile looks new, down pillows (plus poly filled) - amenities of much more expensive hotels!  Would come again.More</t>
   </si>
   <si>
+    <t>alexei27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r354182409-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +651,9 @@
     <t>Not a bad stay at all. There was a computer glitch that made my CC charge appear fraudulent, but the front desk tried to clear it up right away. Clean comfy hotel right near NAS-JRB Ft Worth. Food is a little pricey and delivery is slow at the Bistro (and its closed Sunday AM which is when I needed it!!) But otherwise a good choice for Marriott hotels in the area.More</t>
   </si>
   <si>
+    <t>GuyanaBoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r348073683-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>I checked in to this hotel as I was passing through Fort Worth.  The Hotel Staff were Great!  I did not meet a single staff member that wasn't friendly and personable.My room was on the ground floor and was set up very well.  Internet was free, and although they did not have a free breakfast, they did have a bar and grill in the lobby that offered food from early in the morning till late at night.The room had a microwave and fridge, and there was a snack bar at the front desk that was very complete.Easy access from the interstate made this hotel a very good choice and there was not a single thing that I did not like about this stop over!  Highly recommend.More</t>
   </si>
   <si>
+    <t>BNADFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r337545467-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a...I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a handicapped room if I didn't ask for one, was it because I arrived too late that I just got the last room not taken.  To this, he saId, "yes," yet a couple came in while I was standing there and checked in.  So he lied about that.  He told me he was "done with me" and to step away from the counter or he could call the police, he was done "arguing" with me.  I told him, I wasn't arguing, I was trying to find out about how rooms are assigned for future reference, why, if I was late and that forced me to get the handicapped room, then why did the young couple who came in after me not get that room, I was just asking questions.  He said, "and yet you are still arguing with me" and said if I didn't leave, he would call the police and proceeded to call somebody and he said in the phone, "This is for a non-emergency."  If he did actually call the police, they never came, but he seemed willing to take up their time on New Year's Eve when they obviously would have had more important things with which to deal.  I asked if I could speak to his manager, he pointed to a card that had a name and number on it, so I called the number.  Guess who answered the phone - it was the hotel number and he answered it.  I had to laugh.  He said he thought I would...More</t>
   </si>
   <si>
+    <t>noblehousecatering</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r326874405-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>Free coffee in room but none down stairs. Starbucks is never free. With all the other things going on here it's not a deal breaker. This place can't be beat for the money. Great location, very clean and updated. Wonderful staff. I will stay here every time I'm in town. More</t>
   </si>
   <si>
+    <t>Bruce J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r323161527-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>I cannot believe in $100 a night hotel makes me pay $2 for coffee. Beyond that that service at the breakfast bar was so so. Three people more interested in themselves than their customers. I wish I had stayed at the Hampton Inn across the street. Would have had free coffee and breakfast. I mean I knew breakfast would cost, but usually get free coffee at a courtyard.More</t>
   </si>
   <si>
+    <t>kym72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r319530752-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>Overall, I was very pleased with the hotel.  The location was very close to NAS and even though it sits on I-30 the noise from the highway was not an issue.  The hotel was very clean and our room well taken care of.  The weather was so hot that we were even able to enjoy the outdoor pool and jacuzzi area although I do wish that it had been skimmed for leaves -- but we understand most Texans aren't going to be using the pool or jacuzzi in October.  My only concern was staffing.  We did a mobile/express check-in and nothing was prepared upon our arrival.  We were also told that we would receive complimentary breakfast and found out, along with many others, that this was not true.  The staff at the coffee/breakfast bar was extremely limited - one person to handle all orders (coffee, lattes, breakfasts)- and the five people in line in front of me were all told the same thing about the breakfast being complimentary.  None of us were on "the list" so we did not receive the complimentary breakfast we were promised at check-in.  I also believe that the online registration for the hotel was incorrect because several of us also stated that we saw the breakfast in our reservation process as well.  I thought this situation could have been handled by management far better than it was.  There were two corporate groups staying at the...Overall, I was very pleased with the hotel.  The location was very close to NAS and even though it sits on I-30 the noise from the highway was not an issue.  The hotel was very clean and our room well taken care of.  The weather was so hot that we were even able to enjoy the outdoor pool and jacuzzi area although I do wish that it had been skimmed for leaves -- but we understand most Texans aren't going to be using the pool or jacuzzi in October.  My only concern was staffing.  We did a mobile/express check-in and nothing was prepared upon our arrival.  We were also told that we would receive complimentary breakfast and found out, along with many others, that this was not true.  The staff at the coffee/breakfast bar was extremely limited - one person to handle all orders (coffee, lattes, breakfasts)- and the five people in line in front of me were all told the same thing about the breakfast being complimentary.  None of us were on "the list" so we did not receive the complimentary breakfast we were promised at check-in.  I also believe that the online registration for the hotel was incorrect because several of us also stated that we saw the breakfast in our reservation process as well.  I thought this situation could have been handled by management far better than it was.  There were two corporate groups staying at the hotel over Columbus Day weekend and they were all late in getting their "promised" breakfasts due to lack of staffing and they also ended up having to pay for it.  On a holiday weekend with multiple corporate groups, staffing should be upped to appropriately handle your customers.  That being said, I would stay here again.  The rate was good and the quality/cleanliness of the hotel really met our needs.More</t>
   </si>
   <si>
+    <t>Kathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r308138976-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>I chose the Courtyard and I-30 due to its convenient location to TCU during a trip to attend the Junior Van Cliburn competition held on campus.  The Courtyard was a quick 5-10 minute drive and avoided much of the tangled construction mess around Fort Worth.  The immediate neighborhood around the hotel is not full of restaurants or things to do, and the hotel itself is a typical Courtyard.  We enjoyed using the pool.  There was a bit of  noise from the highway and from military planes.More</t>
   </si>
   <si>
+    <t>Ernice W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r305969085-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -781,6 +856,9 @@
   </si>
   <si>
     <t>Upon arriving at the Hotel, the Staff was Amazing!!! Got us checked in Quickly - it was an overnight Girl trip (8 of us) Staff was so friendly and helpful. Room was nice and clean. Good Location close to restaurants and shopping. Would DEFINITELY stay there again and highly recommend you stay there too!!!More</t>
+  </si>
+  <si>
+    <t>Caroline B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r293370580-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -812,6 +890,9 @@
 But, the main reason I am writing this review is one of your employees,"Aaron Moore" went above and beyond his duties to help me out of a major jam. The store where I was sent to work at all week ran out of toner, I could not copy and send my receipts and sales reports. This is really important part of my job and I have to do it every night. On top of that, the store has double sided receipts (to save a tree) that have to be converted onto one sheet of paper so I can fax it all to my boss in California. Aaron was just awesome, he calmed me down and said "I will work this out...My stay at Marriott Courtyard Forth Worth was really nice. The room was clean and the King size bed was comfortable. The one thing It needed was brighter light for the desk area. When I worked at night doing my paperwork I was having a hard time seeing even with all the lights on in the room. The food and foodservice workers were great. However, I would suggest on Friday and Saturday night that this area should have extended hours. I saw so many people coming in wanting to have a little something before going off to bed. I think this would accommodate your guests better and will also increase your sales even if only open an hour longer.But, the main reason I am writing this review is one of your employees,"Aaron Moore" went above and beyond his duties to help me out of a major jam. The store where I was sent to work at all week ran out of toner, I could not copy and send my receipts and sales reports. This is really important part of my job and I have to do it every night. On top of that, the store has double sided receipts (to save a tree) that have to be converted onto one sheet of paper so I can fax it all to my boss in California. Aaron was just awesome, he calmed me down and said "I will work this out and we'll get this done!" He worked it out for me and continued to help me both nights when I got back to the hotel after 12 hours of work. I'm so grateful for his help and his time, we all need a little Aaron in our life. Take care of this employee, they're hard to come by today...Thank you Marriott Courtyard Fort Worth, I will return!Caroline B.More</t>
   </si>
   <si>
+    <t>Frances S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r291581312-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -836,6 +917,9 @@
     <t>My husband and I went through priceline like we always do to get our rooms never had a problem.Well when we checked into this hotel the guy asked for a credit card no problem, well they ended charging us twice for the room.The whole time I was talking to one of the managers she thought it was funny.Finally after 3 days they refunded money but what priceline charged us not what they charged us.On top of all that the wifi didn't workMore</t>
   </si>
   <si>
+    <t>pcrodriguez78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r288140287-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -860,6 +944,9 @@
     <t>This was nice stay.  The staff was very friendly and greeted us every time we entered or left the building.  The cleaning/linen service personnel were excellent; I never had a complaint about my room.  I enjoyed my king bed and especially enjoyed the couch and coffee table which were just the right distance from the TV.  Never had a problem with the Wi-Fi, it worked great every time I needed it.  Their gym is small, but then that’s usually the case with most hotels.  There were treadmills, elliptical, Stairmaster and free weights.  Never got around to trying out the pool, but it did look nice.  Their Bistro café had a great oatmeal breakfast and also an awesome egg, cheese and bacon sandwich.  The hotel is located right off of I-30 and just down the street from a local shopping center w/an Albertson.  There’s also an Applebee’s and the Ridgmar Mall.More</t>
   </si>
   <si>
+    <t>Angela_Wollongong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r285416745-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
   </si>
   <si>
     <t>We received a friendly welcome by check in staff, and parking and access off the highways were easy. The room seems expensive compared to other chains as there is no breakfast or evening drinks that we've come to expect from hotels in the USA. The room was clean but on the small side. It also had a very weird layout. The mini fridge was wedged between the wall and the sofa. The sofa almost touched the end of the bed. There was only about a 6 inch gap to get through to get into the right side of the bed.There was nothing wrong with is place, and it's a short walk to Applebee's for dinner, but I think you could get a bigger room and better value for your money elsewhere.More</t>
+  </si>
+  <si>
+    <t>William G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r275142516-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -923,6 +1013,9 @@
 It was such a bad meal (that did taste good) that I simply just...Generally speaking Courtyard Hotels have been our favorite stops when traveling. Unfortunately the more I stay at Courtyards, the more I realize they are seriously inconsistent.Don't get me wrong - this is not a bad hotel, it just doesn't live up to its name.- When I entered my room, it stunk of mold or mildew or something, and the one mattress was stained (a fairly big ugly looking stain), and the other the bed skirt was stained similarly. so I called and complained. The guy was good about it and switched me to a different room. Ok, so all good.- Then I went down to the Bistro for dinner. Great staff, but um - no one ever taught the guy there how to make anything, let alone a menu item.I ordered the Mediterranean Tostada... what I got was a flat bread pizza (uncut) covered in olives, mozzarella cheese (instead of Fetta - they were out of and it was the "closest we have"). I commented how it didn't look anything like the pic, and he said "oh - we also don't have black olives". Well, it wasn't even close olives or not...Then I ordered the "Spicy Chicken and Spinach" flatbread. Like the other, it was literally flat bread uncut, topped with spicy chicken and melted cheese - but um... missing spinach!It was such a bad meal (that did taste good) that I simply just started laughing and didn't complain about.And the wine... well I got a glass of cab. At some point I realized it was bad so asked for a new glass. The guy was really cool and supportive and he got a new bottle out. Unfortunately he obviously had never opened a bottle of wine in his life. So I showed him how, then had him smell the two glasses so he would know for the future how to tell if wine is bad (vinegar smell).The staff here was pretty good personality wise. All very friendly and supportive. That tells me the management needs to be changed. No one is teaching the employees how to do their job.No - I won't be back to this Courtyard again.More</t>
   </si>
   <si>
+    <t>happywanderer1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r264788349-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1043,9 @@
     <t>We stayed one night at the Courtyard hotel.  Rooms were up to Marriott standards.  Easy access to zoo, parks and dinner.  Staff was friendly and helpful.  Clean and quiet.  Will stay here again.  Our room did not have a mini fridge.  My daughter's room did.  Charged the same price. Go figure!More</t>
   </si>
   <si>
+    <t>Tylerdurdan333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r263364289-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1073,9 @@
     <t>My wife and I,were  very pleased to be greeted by a very friendly gentleman upon checkin that treated us like we were family!.We requested a room on the top floor,but arrived to find we had been given a room on a floor below the top.I went back to the checkin desk to ask why I'd been put on this floor,He was so helpful and fast In moving us to a room on the top floor while mentioning breakfast in the morning being worth waking up for!;)We did enjoy the breakfast especially Starbucks coffee is absolutely he greatest we give you a 10More</t>
   </si>
   <si>
+    <t>Craig D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r263252503-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1097,9 @@
     <t>Not much to report here - I checked in at 11:30 PM and left at 7:30 AM. Check in was fast and efficient and my first floor room was right around the corner. I noticed some signs of aging in the room but clean and comfortable. I chose this because the price was lower than most other area hotels while keeping with a major brand.More</t>
   </si>
   <si>
+    <t>Paul K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r259396933-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1124,9 @@
     <t>Why would a hotel chain schedule the carpet cleaners to work at night ?? The parked outside my room and ran their equipment until midnight !!! Why can't carpets be cleaned during the day?. It was like a lawnmower running outside the room... Very annoying !! I stay at Hilton properties because they usually take care of their customers, not here....More</t>
   </si>
   <si>
+    <t>Donna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r254325835-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1154,9 @@
     <t>Our room was nice, clean and okay size. The bed and bedding was comfortable and clean. The Lobby area was really spacious, clean and enjoyable for visiting. We were able to sit and visit with family for some time and was never bothered and even had the waitress at the bar checking on us throughout the evening. Service was good and everyone was very courteous. We didn’t have time for breakfast here but we did order a Starbucks drink and was very disappointed. It was as if they had no idea what they were doing when they made it. It wasn’t even close to the drink that I ordered. I would recommend finding an actual Starbucks instead of ordering from them.More</t>
   </si>
   <si>
+    <t>Lowryk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r249793022-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1181,9 @@
     <t>The front desk receptionist was extremely rude last night (1/17/15).  He let us know that our teenage children were running amuck when they only went outside for a celebratory birthday plunge in their open hot tub.  We had all been sitting inside together(during the shift change) until the kiddos went outside for a whole 5 minutes.  We were here with a cheer competition so we understand the importance of quiet.  For the man to claim that our children were running amuck and a father was cursing is incredibly wrong.  We were all there in fun.....and spending money there.   I will NEVER stay at that Marriott again.  Marriott is our chosen hotel, but not at this location ever again.  I will also inform our gym that they should not recommend this hotel again.More</t>
   </si>
   <si>
+    <t>Bren G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r245685324-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1208,9 @@
     <t>Really loved our stay at the hotel.  Comfortable beds.  Did you know the bed coverlets are light and easily washable...not a huge bulky comforter that is not washed after each guests.    These light coverlets makes a huge difference...in cleanliness.  Great parking. Very quiet.  David is at the bistro bar and is an excellent barista.  He will be moving onward (as I understand)...so hurry and stay so you can have the pleasure of his fine(Excellent)  customer service skills. A loss to lose him for certain.   Matter a fact....the only complaint that I have( and wish there were none...because is such a nice hotel)...is the other staff that fills in when David is out.  They need further training.  Unfortunately, I had an  experience with  them ...choosing to basically nearly argue with me on how to make a Chai Tea Latte. I finally left without a Tea...seeing as they chose to make it with a shot of expresso !  I hate coffee!  That is not how it is made!  They had a difficult time trying to refund my credit card charge....but did refund my money. Again...just need training.  The breakfast sandwich with egg whites and spinach and ham....I think is better to choose something else than that on the menu....if you dine in for breakfast.  Something was really off with it.  The last thing...if you need help with the computer or printer...seek a manager.. I was told to "go over there and use...Really loved our stay at the hotel.  Comfortable beds.  Did you know the bed coverlets are light and easily washable...not a huge bulky comforter that is not washed after each guests.    These light coverlets makes a huge difference...in cleanliness.  Great parking. Very quiet.  David is at the bistro bar and is an excellent barista.  He will be moving onward (as I understand)...so hurry and stay so you can have the pleasure of his fine(Excellent)  customer service skills. A loss to lose him for certain.   Matter a fact....the only complaint that I have( and wish there were none...because is such a nice hotel)...is the other staff that fills in when David is out.  They need further training.  Unfortunately, I had an  experience with  them ...choosing to basically nearly argue with me on how to make a Chai Tea Latte. I finally left without a Tea...seeing as they chose to make it with a shot of expresso !  I hate coffee!  That is not how it is made!  They had a difficult time trying to refund my credit card charge....but did refund my money. Again...just need training.  The breakfast sandwich with egg whites and spinach and ham....I think is better to choose something else than that on the menu....if you dine in for breakfast.  Something was really off with it.  The last thing...if you need help with the computer or printer...seek a manager.. I was told to "go over there and use it...it is easy!"  Neither were working.  Fortunately, I found my husband and he helped --get my boarding pass printed.   The new staff just needs some training on customer service.  I know there hearts are right-- they just need some more training.Please do stay here as the hotel is very clean and nice.More</t>
   </si>
   <si>
+    <t>Adriene S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r238901708-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1229,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Jessica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r237777874-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1247,9 @@
     <t>Great room &amp; Great service from staff. Easy parking. Within 2-5 min drive from various stores and eateries. The breakfast options were very slim, and did not like having a grab and go style. Hallways were a little louder than average- I could hear every door slam shut or  people walking. Will stay again next time in the area- will just know to bring own items for breakfast.</t>
   </si>
   <si>
+    <t>msroy616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r233176044-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1266,9 @@
   </si>
   <si>
     <t>September 2014</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r228023696-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1183,6 +1306,9 @@
 Our guest room was bright with pleasing decor. Space was a bit tight when luggage...Positives: clean, stunning design, good priceNegatives: no free breakfast or mini-fridgeAlthough it sits squarely in a suburban area, this place feels a lot like a downtown hotel. The main building and parking space take up most of the lot, with relatively little landscaping. A multistory office building and parking garage directly behind the hotel add to the urban vibe. (Note: these buildings block the view from rooms on the back side of the hotel. We stayed in one of them.)Inside, the hotel is extremely attractive. Designers incorporated a wide variety of textures and colors into the decor, and the layout is easy to follow. Public areas and guest rooms are well-appointed, inviting and comfortable.High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.Our guest room was bright with pleasing decor. Space was a bit tight when luggage was added to the furniture already inside. Even without our gear we were unable to maneuver the luggage cart past the bathroom door. We parked the cart just inside the front door and carried items into our sleeping quarters.The mattress was firmer than we prefer, but we slept well enough on it. Other than a couple of shaky lamp stands the room and furnishings were in good condition. The air conditioner performed flawlessly.In our opinion, the biggest deficiencies of this hotel are the lack of (1) free breakfasts and (2) mini-refrigerators. My guess is most of their target population dines at corporate expense, so complimentary meals and refrigerators for leftovers and drinks are not essential (or desirable).The Bottom Line -This hotel is a great choice for business travelers and couples with little luggage and equipment. Space is somewhat constrained for vacationers with a lot of gear.We knew about the lack of breakfast and refrigerator when reservations were made, but chose to...More</t>
   </si>
   <si>
+    <t>susanned</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r218803877-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1327,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>oktraveler771</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r205543881-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1345,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>OoohDonna2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r201092279-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1366,9 @@
     <t>I agree with a previous traveler that stated the hotel needs to recognize Elite Members.  First of all, I arrived at the hotel around 11:30pm so the inside door was locked and required a room key to open.  I rang the bell and someone arrived at the desk and gestured for me to open the door with my key...seriously?  He saw me standing there with two suitcases next to me.  He finally unlocked the door.  Took my name and did not acknowledge my Platinum status, in fact, when I asked if there were any upgrades for a Platinum member, he said "what kind were you looking for?".  I was taken aback because no one ever asked me this before - at other Marriott brands, they were happy to look for me.  He didn't even look at the computer and stated "no, there's nothing".  Also, I did not get asked if I wanted points or an amenity.  The lobby is nice, but the rooms are small and the bathroom shower liner was torn and smelled of mildew.  The view from my room was of a parking garage, and it was so close I couldn't even see the sky to see if it was sunny or cloudy.  I could also hear the noise of the highway.  I was supposed to stay 4 nights, but checked out this morning and booked a Fairfield Inn nearby.More</t>
   </si>
   <si>
+    <t>AJfromCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r200630970-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1393,9 @@
     <t>Everything I needed and hoped for was provided. Close to a grocery store also. Good rate and very kind staff indeed. Checked in and almost felt like hanging out in the lobby and talking more to the front desk staff.More</t>
   </si>
   <si>
+    <t>Jackcatscal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r140503520-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1417,9 @@
     <t>I've stayed in a number of hotels in this area.  This time, I picked the Courtyard on I-30 West, since it seemed the closest to the Lockheed facility on White Settlement Road.  That was a mistake.  Another Courtyard that I've stayed in, at Cityview, although a little more distant, would have been more convenient because of easier freeway access.  Additionally, the West Feeway Courtyard seemed older, the lobby more cramped, the rooms smaller, and the location really unattractive.  (If you stay there, make sure you ask for a room away from the freeway side, as I did.  The hotel abuts a very busy freeway, and I can imagine the traffic noise would be unacceptable.)More</t>
   </si>
   <si>
+    <t>Lindsey H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r135548583-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1441,9 @@
     <t>This hotel looks nice from the outside and inside the lobby until you lay down to sleep at night. The mattress' are horrible! Our backs hurt every morning we woke up and continued to hurt the whole time we were there! The front desk said "We are getting new mattress' in August", but this was June- so what good does that do us?? The pool was dirty and gross. The sides/tiles were covered in black pool scum. There was a big family of 10 (kids,parents, boyfriends, grandmas) that wasn't staying at the hotel that was allowed to come and swim everynight, that would take over the pool. The cafe was really overpriced. The bathroom was tiny and the vanity area had no counter space. It would be ok if 1 person was staying there, but definitely not for 3 adults. This hotel was overpriced and the staff didn't care if there quests were happy or comfortable.More</t>
   </si>
   <si>
+    <t>Paul J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r132149183-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1462,9 @@
     <t>I love this Marriott, especially the friendly expert service, environment, and the clean rooms. It is tucked away and doesn't come up on AT&amp;T Navigator, so you have to put in the address, 6330 West Freeway in Fort Worth to find it. Here's the deal guys, this hotel was chocked FULL of boy's baseball teams...and it was QUIET! Normally, boys teams are the worst and I was prepped for the same, but man, these guys know how to manage groups. From the front desk. Deidre is a spark of life behind the front desk and Eddie was very helpful and provided friendly service to us with our tv. Bottom line, folks, whether with family or Guard or business, it is rare to find a hotel so friendly and help. Look them up, you won't be disappointed!More</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r129926836-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1339,6 +1486,9 @@
     <t>I had the worst experiance while staying at this establishment. After the first night stay I discovered that the room automatic lock didn't work and I couldn't get out of the room. I was locked in for forty five minutes. The front desk tried to get me out from the hallway side to no avail. I finally used my truck key to force the lock open. After talking with the manager I was informed that she would have to ckeck my profile (not sure what that had to do with my safety). I was then informed I was with priceline. I was given the impression she was not concerned after that since I was with priceline. I was informed that someone would look at the lock. I never heard back from anyone. Don't stay here if you are with priceline and are not a long time guest at this establishment, they only care about the regulars.More</t>
   </si>
   <si>
+    <t>goldelitehouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r127703792-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1510,9 @@
     <t>Beware of this hotel as burglars hit this place every few months especially when a truck show is in town as the crooks prey on fancy cars and trucks in the lots. On my 2nd stay at this location which is a Marriott franchise, woke up to my car and 4 others being broken into and items stolen. The worst part of this was the managers attitude towards me (Gold Elite, 80 nights per year) made me fill out an incident report and without furnishing a copy. She also informed me in a stern tone that they were not responsible and guests park at their own risk. Nothing new to inform me about but most Marriott's I stay at provide night time security guards to ward off criminals. Stay away from this hotel at all costs because it will cost you lost time and money getting your smashed window repaired and wasted time chasing your tail with these terrible management people. One manager was nice enough to offer an apology after I checked out, but too little too late.More</t>
   </si>
   <si>
+    <t>omaopatravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r122602707-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1531,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>glexible</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r119377181-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1552,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>rwt1344</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r115978902-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1573,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>epochlaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r101795684-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1435,6 +1597,9 @@
     <t>My son and I recently stayed at this hotel after booking a room through Priceline.  The hotel staff was very friendly (especially Dierdre) and were more than happy to answer questions regarding the city and area attractions.  The lobby is very nice with computers available and free wifi as well.  The room was certainly nice enough but there are a few things that could have used some work.  The bathroom looked like it had water damage at some point.  The repair work was very poorly done,  It looked like patching had been done and then someone simply painted over the textured wallpaper.  Also, the sink was outside of the bathroom, which is a personal peeve of mine.  We had one of the rooms that faced the parking garage.  I would not want  this view again as the garage essentially blocked most of the light from entering the room.  Also, there was a very bad odour near the elevators during our stay.  However, it was addressed by hotel staff and they did seem to rectify the problem.   The hotel did have a very nice air conditioned exercise room with t.v. and water cooler.  The pool area seemed very nice as well, although we did not get around to using it.There were no security issues whatsoever as the hotel is in a nice location in close proximity to great restaurants and shopping.More</t>
   </si>
   <si>
+    <t>robin051</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r76509913-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1618,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>Dawn8965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r54191342-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1660,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>KKAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r21760195-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1679,9 @@
   </si>
   <si>
     <t>I've stayed at this hotel at multiple times and thought it deserved a new review. First of all, this hotel is right off the highway and there's only one entrance to get in. So, if you miss it on the frontage road, you'll need to go back around. The lobby includes the front desk, a small bar and the breakfast area. It's very nice and clean and there's also a nice business center/desk area. The rooms are clean and the furniture is nice. My last room was on the 2nd floor on the side closes to the parking garage. At first I thought this might be a problem, but it turned out to be one of the quietest rooms I've stayed in. I actually slept in to almost 10! There are a ton of places to eat nearby and downtown is less than 10 minutes away. If you need to be in the Fort Worth area, you can't go wrong with this one.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r5392834-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -2048,43 +2222,47 @@
       <c r="A2" t="n">
         <v>52126</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2096,56 +2274,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52126</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>127528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2157,56 +2339,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52126</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>99530</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2222,56 +2408,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52126</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127529</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2287,56 +2477,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52126</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>71314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2354,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52126</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>32477</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2415,56 +2613,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52126</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2482,56 +2684,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52126</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>80176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2545,50 +2751,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52126</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>31950</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2602,41 +2812,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52126</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127531</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -2653,56 +2867,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52126</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>18964</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2722,50 +2940,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52126</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127532</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2785,50 +3007,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52126</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127533</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2840,56 +3066,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52126</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127534</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2907,56 +3137,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52126</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127535</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2970,50 +3204,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52126</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127536</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3031,56 +3269,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52126</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>15757</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3096,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52126</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127537</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3157,56 +3403,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52126</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127538</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3224,56 +3474,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52126</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124436</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3289,56 +3543,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52126</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127539</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3350,56 +3608,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52126</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>33865</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3411,56 +3673,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52126</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3476,56 +3742,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52126</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>20839</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3541,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52126</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127540</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3608,56 +3882,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52126</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3673,56 +3951,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52126</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127541</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3740,56 +4022,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52126</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127542</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3807,56 +4093,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52126</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>29909</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3874,56 +4164,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52126</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3939,56 +4233,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="X31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52126</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127543</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4004,56 +4302,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52126</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127544</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4065,56 +4367,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52126</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>17414</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4132,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52126</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>10137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4199,56 +4509,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52126</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>18894</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4266,47 +4580,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52126</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127545</v>
+      </c>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -4333,56 +4651,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="X37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="Y37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52126</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127546</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4394,56 +4716,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52126</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127547</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4461,50 +4787,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52126</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4524,50 +4854,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52126</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>17392</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4581,50 +4915,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52126</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127548</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4644,50 +4982,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52126</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127549</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4707,50 +5049,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52126</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127550</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4774,50 +5120,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52126</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127551</v>
+      </c>
+      <c r="C45" t="s">
+        <v>433</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4841,50 +5191,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52126</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>48436</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4906,56 +5260,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52126</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>127552</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4969,50 +5327,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52126</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>2686</v>
+      </c>
+      <c r="C48" t="s">
+        <v>457</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5036,50 +5398,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52126</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>40235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>465</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="J49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="K49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5103,50 +5469,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52126</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C50" t="s">
+        <v>472</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5170,50 +5540,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52126</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>127553</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5237,50 +5611,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52126</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>127554</v>
+      </c>
+      <c r="C52" t="s">
+        <v>488</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5304,50 +5682,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52126</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>127555</v>
+      </c>
+      <c r="C53" t="s">
+        <v>495</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5371,50 +5753,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52126</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>127556</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5434,50 +5820,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52126</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127557</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5501,50 +5891,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52126</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>127558</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5568,50 +5962,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52126</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127559</v>
+      </c>
+      <c r="C57" t="s">
+        <v>524</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="J57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="K57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="L57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5635,7 +6033,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58">
@@ -5648,37 +6046,37 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="K58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5702,41 +6100,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52126</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>19614</v>
+      </c>
+      <c r="C59" t="s">
+        <v>538</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="J59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="K59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="L59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
@@ -5765,41 +6167,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52126</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>545</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
@@ -5818,41 +6224,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52126</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>545</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -5879,7 +6289,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_147.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_147.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,183 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Erickwiggins1</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r590369065-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>294848</t>
+  </si>
+  <si>
+    <t>590369065</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite  and clean no crowds </t>
+  </si>
+  <si>
+    <t>Had a nice quiet stay with the wife. Had the pool and hot tub to our selves. They could have been cleaner. Halls smelled a little musty but we were close too the pool and exercise room. Rooms nice clean but. Why would you have a nice coffee maker and then have two $6 bottles of water in the room instead of a couple of free bottles already included in the room price. I'd feel much better. Over all okay. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Eduardo A, Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Had a nice quiet stay with the wife. Had the pool and hot tub to our selves. They could have been cleaner. Halls smelled a little musty but we were close too the pool and exercise room. Rooms nice clean but. Why would you have a nice coffee maker and then have two $6 bottles of water in the room instead of a couple of free bottles already included in the room price. I'd feel much better. Over all okay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r561501345-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>561501345</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Unexpected balcony</t>
+  </si>
+  <si>
+    <t>Family stayed two nights at this location while my son was having surgery at Cook Children's hospital.  For a cheaper rate away from downtown, it was a very quick 6-8 minute drive to the hospital.  The lobby is beautiful and the staff was very welcoming.  Our room was clean and well appointed.  I was surprised to find a quaint balcony overlooking the pool.  The highway noise is significant for someone coming from the country, but all in all it was a nice stay for the price.  Do not recommend the Applebee's next door.  The food is lacking compared to others we have been to in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Eduardo A, General Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Family stayed two nights at this location while my son was having surgery at Cook Children's hospital.  For a cheaper rate away from downtown, it was a very quick 6-8 minute drive to the hospital.  The lobby is beautiful and the staff was very welcoming.  Our room was clean and well appointed.  I was surprised to find a quaint balcony overlooking the pool.  The highway noise is significant for someone coming from the country, but all in all it was a nice stay for the price.  Do not recommend the Applebee's next door.  The food is lacking compared to others we have been to in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r518684486-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>518684486</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We actually stayed here in April but I could not go back that far (plus I didn't have the trip app)' This hotel was nice and clean, great location for us as we had family living near by. The staff where very nice and helpful and could not do anymore for us (for someone who comes from the UK) lol it makes a nice change.  I loved the free coffees in the morning which I had after having a session in the gym, the rooms as I said where nice and clean and when I asked if I could move rooms to be nearer to the pool and hot tub (as we could use it when the kiddies where asleep)  it was not a problem and within an hour of asking we was in out new room. Nice food, love the big touch screen tv in the entrance, and parking was ok.We will be going back here again next April. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eduardo A, Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>We actually stayed here in April but I could not go back that far (plus I didn't have the trip app)' This hotel was nice and clean, great location for us as we had family living near by. The staff where very nice and helpful and could not do anymore for us (for someone who comes from the UK) lol it makes a nice change.  I loved the free coffees in the morning which I had after having a session in the gym, the rooms as I said where nice and clean and when I asked if I could move rooms to be nearer to the pool and hot tub (as we could use it when the kiddies where asleep)  it was not a problem and within an hour of asking we was in out new room. Nice food, love the big touch screen tv in the entrance, and parking was ok.We will be going back here again next April. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r517222581-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>517222581</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>A Nice Stay</t>
+  </si>
+  <si>
+    <t>This nice hotel, right off of 1-35W and barely a block away from an Applebee’s.  My room was nice, with a large 42” flat screen, mini-refrigerator, microwave, and a nice king size bed.  They had a buffet breakfast and I enjoyed my healthy oatmeal with walnuts, cranberry’s and raisin on the side.  I enjoyed being able to grab the free USA Today every morning and reading it with breakfast.  The staff was courteous all the time and had suggestions for local BB-Q, Tex-Mex and other dining locations.  I also liked the little store they had; this enabled me to indulge almost nightly in the tiny Hagen-Dass ice creams they sold, yum!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Eduardo A, Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>This nice hotel, right off of 1-35W and barely a block away from an Applebee’s.  My room was nice, with a large 42” flat screen, mini-refrigerator, microwave, and a nice king size bed.  They had a buffet breakfast and I enjoyed my healthy oatmeal with walnuts, cranberry’s and raisin on the side.  I enjoyed being able to grab the free USA Today every morning and reading it with breakfast.  The staff was courteous all the time and had suggestions for local BB-Q, Tex-Mex and other dining locations.  I also liked the little store they had; this enabled me to indulge almost nightly in the tiny Hagen-Dass ice creams they sold, yum!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r499358596-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>499358596</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Great gem of a hotel in Fort Worth</t>
+  </si>
+  <si>
+    <t>We stay here on most visits to Fort Worth. The hotel is clean and quiet with easy access to I-30. It's just west of the cultural district, downtown, the zoo, botanic gardens and not far from TCU. We had a king bed and the room is well arranged. The staff is friendly and helpful. We've always felt safe in the area and hotel. We typically book on hotels.com but have also received great rates by calling the hotel directly. There is a Starbucks in the lobby that serves food. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Eduardo A, General Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>We stay here on most visits to Fort Worth. The hotel is clean and quiet with easy access to I-30. It's just west of the cultural district, downtown, the zoo, botanic gardens and not far from TCU. We had a king bed and the room is well arranged. The staff is friendly and helpful. We've always felt safe in the area and hotel. We typically book on hotels.com but have also received great rates by calling the hotel directly. There is a Starbucks in the lobby that serves food. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r498881117-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>498881117</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>A Good Stay for Short Stops</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Nice looking cafe. People at the front desk are friendly and helpful. The rooms are clean, but appear dated. My issue is with the beds. Not firm. Lacks support that I've found in the many Marriott properties that I've stayed at. It was difficult to get much rest. For the cost, I would have expected more, especially as there is a Fairfield Inn and Hampton Inn are across the road. It's worth paying a little more at these other hotels for a better sleep experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eduardo A, General Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Nice looking cafe. People at the front desk are friendly and helpful. The rooms are clean, but appear dated. My issue is with the beds. Not firm. Lacks support that I've found in the many Marriott properties that I've stayed at. It was difficult to get much rest. For the cost, I would have expected more, especially as there is a Fairfield Inn and Hampton Inn are across the road. It's worth paying a little more at these other hotels for a better sleep experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r498020916-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>294848</t>
-  </si>
-  <si>
     <t>498020916</t>
   </si>
   <si>
@@ -177,24 +339,9 @@
     <t>I have been staying here on weekend (and sometimes weekday visits) to FW for years. It's easy on/off to I30. It's just beyond the exits for the cultural district - so it's very quiet and on the weekends. It's reasonably priced always but I often get FANTASTIC RATES!  I usually book them through hotels.com. It's clean and comfy - cozy and quiet - offers a mini 24 hour snack shop downstairs by the desk and has a small grill for breakfast or a light dinner in the evenings. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Eduardo A, General Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded July 27, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 27, 2017</t>
-  </si>
-  <si>
     <t>I have been staying here on weekend (and sometimes weekday visits) to FW for years. It's easy on/off to I30. It's just beyond the exits for the cultural district - so it's very quiet and on the weekends. It's reasonably priced always but I often get FANTASTIC RATES!  I usually book them through hotels.com. It's clean and comfy - cozy and quiet - offers a mini 24 hour snack shop downstairs by the desk and has a small grill for breakfast or a light dinner in the evenings. More</t>
   </si>
   <si>
-    <t>sunseeker68_19</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r497689033-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,18 +357,9 @@
     <t>Great location for visiting Lockheed at a good price.Clean modern hotel with pool and spa + limited fitness centre.Great choice of healthy and full-up breakfasts lunches and salads prepared on the spot. Salads were great, healthy and tasty. Dinner options great and fairly priced.My room was clean spacious and bed comfortable.Highly recommended - Staff were very friendly.Only negative was the noisy aircon in my room which ran off and on through the night.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Great location for visiting Lockheed at a good price.Clean modern hotel with pool and spa + limited fitness centre.Great choice of healthy and full-up breakfasts lunches and salads prepared on the spot. Salads were great, healthy and tasty. Dinner options great and fairly priced.My room was clean spacious and bed comfortable.Highly recommended - Staff were very friendly.Only negative was the noisy aircon in my room which ran off and on through the night.More</t>
   </si>
   <si>
-    <t>1twangster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r496830655-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,9 +384,6 @@
     <t>I had my door open to the patio last night for some fresh air.  People were smoking by the pool and the smoke was entering my room.  There's a big "No Smoking" sign on the door leading to the pool area.The internet service here is non-functional if you need to view videos or upload files.  Couldn't even scroll through facebook without it locking up.  I inquired at the front desk.  The girl told me she could provide a number to call and have the speed increased.  I asked her how that might work.  She said the service in this area is slow and they can do something to speed it up.  Unacceptable in a $112 room.Breakfast the next morning was a bust.  Undercooked bacon.  Barely toasted bread and seasoned potatoes.  I detest seasoned potatoes.  The manager did offer to cook the bacon more but that never has a pleasant result.  No offer to comp or reduce the check.Nice room though, except for all the warts.More</t>
   </si>
   <si>
-    <t>jpmcdonough</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r492475819-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,9 +399,6 @@
     <t>This hotel is just off I-30 at the Green Oaks exit. It comes up on you quick and the entrance is hard to see. The hotel is pretty standard for the Marriott Courtyard experience and was not too noisy despite being right on I-30. The room was pretty small but adequate. The TV worked okay but some of the channels you would expect were not there (such as the PBS station). The coffee setup in the room was a bit lacking in that they gave you one decaf and one regular. For two people.The in-room AC was pretty noisy.Parking is good and there is access through the back door that saves steps.  There is a small exercise room with one elliptical and a couple of treadmills and some free weights. There is a tiny outdoor pool. The Bistro restaurant is the same as any Courtyard, but in this one the manager refuses to give free refills of coffee.  Never ran into that before. Deduct one star.Free wi-fi, but dreadfully slow. Deduct one more star.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Eduardo A, Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded June 13, 2017</t>
   </si>
   <si>
@@ -276,9 +408,6 @@
     <t>This hotel is just off I-30 at the Green Oaks exit. It comes up on you quick and the entrance is hard to see. The hotel is pretty standard for the Marriott Courtyard experience and was not too noisy despite being right on I-30. The room was pretty small but adequate. The TV worked okay but some of the channels you would expect were not there (such as the PBS station). The coffee setup in the room was a bit lacking in that they gave you one decaf and one regular. For two people.The in-room AC was pretty noisy.Parking is good and there is access through the back door that saves steps.  There is a small exercise room with one elliptical and a couple of treadmills and some free weights. There is a tiny outdoor pool. The Bistro restaurant is the same as any Courtyard, but in this one the manager refuses to give free refills of coffee.  Never ran into that before. Deduct one star.Free wi-fi, but dreadfully slow. Deduct one more star.More</t>
   </si>
   <si>
-    <t>Christy_Luv2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r473358060-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,9 +438,6 @@
     <t>Our final hotel on our 2-week tour of the Deep South.  No safe, although there are coffee facilities, along with a microwave and fridge in the room.  Watch yourself in the bath-can be slippy if you're in the shower-no bathmat!  Room was clean and staff generally friendly. ENJOY!More</t>
   </si>
   <si>
-    <t>skm16521</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r465198753-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,9 +465,6 @@
     <t>Love the ability to check in online &amp; just swing by &amp; pickup the key! Requested 1st floor room when reservation was made in early January &amp; request was fulfilled. Thank you! As a new rewards member, nice touch giving the chocolate bar with your name printed on it. Make it personal. Bed was great, linens were nice, room was clean. Refrigerator &amp; coffee maker in room. Only con: bathroom counter was really small. Not enough space for 2 people. Great location for me! Will return!More</t>
   </si>
   <si>
-    <t>UTAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r451026143-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,9 +492,6 @@
     <t>This property has very friendly staff with slightly dated facilities and rooms. Everything was clean and the lobby appears to have been recently renovated. The room had a comfortable bed and a sofa that looked like it could go in a hotel room, a doctor's office, or an airport lounge. The bathroom had a small sink and a tub/commode in another small room. The water pressure was good though, surprisingly, the hot water did not last particularly long. This may have been a one time thing; it was very cold outside and the property seemed full; perhaps the boiler could not keep up.The towels were fresh and clean. The sheets seemed fresh and clean too.More</t>
   </si>
   <si>
-    <t>DC196</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r432532412-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -393,9 +513,6 @@
     <t>In town for an event, and wished we'd shopped the Marriott family. Higher rated Fairfield just across the highway and a Springhill closer to our event.  Our own fault Rooms are clean but bathrooms are old and cramped and this is the first time I had a phone charger literally fall out of the socket.   I hate loose electrical outlets.Most modern part of the hotel is their new profit center, sorry, I mean Bistro.  Only Marriott brand to not throw in breakfast as part of the deal.  Our free Platinum welcome gift was a small Starbucks coffee.  Color us underwhelmed, especially when breakfast for two adds $20 to the already pretty high room rate More</t>
   </si>
   <si>
-    <t>ColoradoTexan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r425964544-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,9 +528,6 @@
     <t>Looks like it was recently updated, but as the picture shows the outside windows need some love.Friendly staff, clean room.  The breakfast is good, Starbucks in Lobby (can't pay with Starbucks application, BTW), location is right off freeway.</t>
   </si>
   <si>
-    <t>Shawna P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r409953646-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,9 +552,6 @@
     <t>I stayed one night at this Courtyard by Marriott while in Ft. Worth for business. This hotel is conveniently located right off Rt 30 and easy to locate. You can immediately see the age of the hotel. There has been attempts to update and modernize the lobby but the rooms really show the age, mostly in the bathrooms and carpets. With that said, my room was clean and well appointed. I'm a Marriott Club member and arrived to a complementary welcome chocolate bar with my name on it and thought that was a cute touch. My bed was super comfy and the air conditioning worked great. My stay was really comfortable, so in the end the aged hotel didn't matter. Everyone at the front desk was very friendly and even made suggestions for dinner which we took and we're happy with. There is an outdoor pool area although it's quite small and I didn't see anyone using it during my stay. I'd recommend this hotel to someone looking for comfy and practical.More</t>
   </si>
   <si>
-    <t>Lynn O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r406358738-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -459,9 +570,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Steve Kimberly M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r395404469-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,9 +591,6 @@
     <t>The hotel lobby and grounds are clean and maintain very well. They do not have free continental breakfast but they do have a Starbucks bistro. My room was clean and the bed was comfortable, it also had a microwave and a mini fridge. The hotel had free wifi but you have to pay extra for the faster version. The maid service was great, every morning they replenish the coffee and the soap and shampoo. The hotel staff was very friendly greeted you every time you walk in and wished you a good day when you leave. My room had a microwave and a mini fridge. The only con is no free breakfast.More</t>
   </si>
   <si>
-    <t>enatal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r394758945-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,9 +615,6 @@
     <t>Hotel is very clean. Rooms are well maintained. Rooms equipped with refrigerator and mini microwave oven.10-minute walk from Ridgemar Mall. Facilities are well maintained and common areas are also clean. WiFi is outstanding and does not need daily login to connect.More</t>
   </si>
   <si>
-    <t>mmitch1210</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r383190470-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,9 +642,6 @@
     <t>I had to wake my daughter up out of her sleep.The maid was here to clean. I told her we would come back. 2 hours later. We come back and room is still not clean. The problem is they hire maids that don't speak English. So there is a communication problem. We booked here for 1 week. When you pay that much money the least they can do is clean your room. SMH never again!!!!More</t>
   </si>
   <si>
-    <t>PAUL R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r375181714-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,9 +660,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>hank3512</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r365498001-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -591,9 +687,6 @@
     <t>The hotel is fine but the TV's are old and you cannot hook up a PS4 to the TV. I stay 100+ nights a year for business and always bring my PS4 because I don't watch TV. I won't stay here again until they get new TV's.More</t>
   </si>
   <si>
-    <t>Jon M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r356404176-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -621,9 +714,6 @@
     <t>OK - may not be the newest hotel around, but it is clean, has an OK lobby, front desk help was very good and the room is very large and newly renovated.  Booked on priceline for $61 and it is worth every penny.  Bathroom free of any mold, tile looks new, down pillows (plus poly filled) - amenities of much more expensive hotels!  Would come again.More</t>
   </si>
   <si>
-    <t>alexei27</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r354182409-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,9 +741,6 @@
     <t>Not a bad stay at all. There was a computer glitch that made my CC charge appear fraudulent, but the front desk tried to clear it up right away. Clean comfy hotel right near NAS-JRB Ft Worth. Food is a little pricey and delivery is slow at the Bistro (and its closed Sunday AM which is when I needed it!!) But otherwise a good choice for Marriott hotels in the area.More</t>
   </si>
   <si>
-    <t>GuyanaBoy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r348073683-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -684,9 +771,6 @@
     <t>I checked in to this hotel as I was passing through Fort Worth.  The Hotel Staff were Great!  I did not meet a single staff member that wasn't friendly and personable.My room was on the ground floor and was set up very well.  Internet was free, and although they did not have a free breakfast, they did have a bar and grill in the lobby that offered food from early in the morning till late at night.The room had a microwave and fridge, and there was a snack bar at the front desk that was very complete.Easy access from the interstate made this hotel a very good choice and there was not a single thing that I did not like about this stop over!  Highly recommend.More</t>
   </si>
   <si>
-    <t>BNADFW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r337545467-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -699,7 +783,7 @@
     <t>Very poor customer service/abusive front desk clerk</t>
   </si>
   <si>
-    <t>I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a...I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a handicapped room if I didn't ask for one, was it because I arrived too late that I just got the last room not taken.  To this, he saId, "yes," yet a couple came in while I was standing there and checked in.  So he lied about that.  He told me he was "done with me" and to step away from the counter or he could call the police, he was done "arguing" with me.  I told him, I wasn't arguing, I was trying to find out about how rooms are assigned for future reference, why, if I was late and that forced me to get the handicapped room, then why did the young couple who came in after me not get that room, I was just asking questions.  He said, "and yet you are still arguing with me" and said if I didn't leave, he would call the police and proceeded to call somebody and he said in the phone, "This is for a non-emergency."  If he did actually call the police, they never came, but he seemed willing to take up their time on New Year's Eve when they obviously would have had more important things with which to deal.  I asked if I could speak to his manager, he pointed to a card that had a name and number on it, so I called the number.  Guess who answered the phone - it was the hotel number and he answered it.  I had to laugh.  He said he thought I would...MoreShow less</t>
+    <t>I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a...I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a handicapped room if I didn't ask for one, was it because I arrived too late that I just got the last room not taken.  To this, he saId, "yes," yet a couple came in while I was standing there and checked in.  So he lied about that.  He told me he was "done with me" and to step away from the counter or he could call the police, he was done "arguing" with me.  I told him, I wasn't arguing, I was trying to find out about how rooms are assigned for future reference, why, if I was late and that forced me to get the handicapped room, then why did the young couple who came in after me not get that room, I was just asking questions.  He said, "and yet you are still arguing with me" and said if I didn't leave, he would call the police and proceeded to call somebody and he said in the phone, "This is for a non-emergency."  If he did actually call the police, they never came, but he seemed willing to take up their time on New Year's Eve when they obviously would have had more important things with which to deal.  I asked if I could speak to his manager, he pointed to a card that had a name and number on it, so I called the number.  Guess who answered the phone - it was the hotel number and he answered it.  I had to laugh.  He said he thought I would have known to call during regular business hours.  I wasn't budging, so he called two sister properties.  The first one was booked.   He said they were booked, there was nothing more he could do, please leave.  I didn't budge.  At this point, I should mention that is was getting close to midnight and he had a lovely young lady sitting in the office behind the front desk with a 2016 hat on that I assumed was his date and they were going to be going out after he got off.  (I took a picture of him to try to get a picture of his nametag and the picture clearly shows her in the background.  I suppose it could be a staff member, but she is very dressed up for work.)  He called another property, Fairfield Inn, and gave me a sheet of paper to give to them as thy had a room.  The paper guaranteed me the room for one night at the same rate.  I asked if he would guarantee the room for all four of my nights, would he change it from one to four?  He said, "I will not."  I asked why.  He just said over and over, "I will not."  Never once did Alex say, sorry about the room, let me put you in another hotel at our expense tonight and then come back tomorrow and we will get you a room that is not handicapped, not on the first floor by an entrance (since you are a single, middle-aged woman and you will feel safer and we should have never assigned a single woman a first floor room by a side entrance in the first place).  Alex was arrogant, condescending,  verbally abusive and just plain rude.  Happy ending though.   Linda at Fairfield Inn apparently had heard stories about Alex, welcomed me with open arms (I was almost in tears), hugged me Happy New Year, treated me with respect and dignity, and the whole staff at Fairfield was fabulous.  Plus, they had an incredible free breakfast there - and Courtyard did not.MoreShow less</t>
   </si>
   <si>
     <t>Michael M, General Manager at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded January 8, 2016</t>
@@ -708,10 +792,7 @@
     <t>Responded January 8, 2016</t>
   </si>
   <si>
-    <t>I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a...I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a handicapped room if I didn't ask for one, was it because I arrived too late that I just got the last room not taken.  To this, he saId, "yes," yet a couple came in while I was standing there and checked in.  So he lied about that.  He told me he was "done with me" and to step away from the counter or he could call the police, he was done "arguing" with me.  I told him, I wasn't arguing, I was trying to find out about how rooms are assigned for future reference, why, if I was late and that forced me to get the handicapped room, then why did the young couple who came in after me not get that room, I was just asking questions.  He said, "and yet you are still arguing with me" and said if I didn't leave, he would call the police and proceeded to call somebody and he said in the phone, "This is for a non-emergency."  If he did actually call the police, they never came, but he seemed willing to take up their time on New Year's Eve when they obviously would have had more important things with which to deal.  I asked if I could speak to his manager, he pointed to a card that had a name and number on it, so I called the number.  Guess who answered the phone - it was the hotel number and he answered it.  I had to laugh.  He said he thought I would...More</t>
-  </si>
-  <si>
-    <t>noblehousecatering</t>
+    <t>I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a...I booked through Priceline for December 31, 2015 through January 4.  I called the hotel three different times, once right after the booking to make sure the name was correct and I mentioned it was just me traveling..  I called twice on the 31st to let them know I would be arriving late. My flight would arrive late and I was going straight to my dad's nursing home because he was ill.  I finally arrived around 11:00 p.m.  Alex, who was at the front desk, gave me room 100, which turned out to be a handicapped room directly next to a side entrance.  The room smelled and did not have a tub.  The room was lovely, but the bathroom looked like my dad's nursing home and it was too depressing.  It was just not acceptable to me with the smell.  I went back out to tell Alex.  He told me the room had been "assigned" to me the night before and there was nothing he could do as they were booked.   As it was a 3rd party booking, I would have to check with Priceline, which of course, was unavailable at 11:30 on New Year's Eve.  He never stopped looking at his computer, never stopped to look at me, but told me if I was not happy with the room, I could leave.  I was shocked at his behavior.  I started to ask questions about why would I get a handicapped room if I didn't ask for one, was it because I arrived too late that I just got the last room not taken.  To this, he saId, "yes," yet a couple came in while I was standing there and checked in.  So he lied about that.  He told me he was "done with me" and to step away from the counter or he could call the police, he was done "arguing" with me.  I told him, I wasn't arguing, I was trying to find out about how rooms are assigned for future reference, why, if I was late and that forced me to get the handicapped room, then why did the young couple who came in after me not get that room, I was just asking questions.  He said, "and yet you are still arguing with me" and said if I didn't leave, he would call the police and proceeded to call somebody and he said in the phone, "This is for a non-emergency."  If he did actually call the police, they never came, but he seemed willing to take up their time on New Year's Eve when they obviously would have had more important things with which to deal.  I asked if I could speak to his manager, he pointed to a card that had a name and number on it, so I called the number.  Guess who answered the phone - it was the hotel number and he answered it.  I had to laugh.  He said he thought I would have known to call during regular business hours.  I wasn't budging, so he called two sister properties.  The first one was booked.   He said they were booked, there was nothing more he could do, please leave.  I didn't budge.  At this point, I should mention that is was getting close to midnight and he had a lovely young lady sitting in the office behind the front desk with a 2016 hat on that I assumed was his date and they were going to be going out after he got off.  (I took a picture of him to try to get a picture of his nametag and the picture clearly shows her in the background.  I suppose it could be a staff member, but she is very dressed up for work.)  He called another property, Fairfield Inn, and gave me a sheet of paper to give to them as thy had a room.  The paper guaranteed me the room for one night at the same rate.  I asked if he would guarantee the room for all four of my nights, would he change it from one to four?  He said, "I will not."  I asked why.  He just said over and over, "I will not."  Never once did Alex say, sorry about the room, let me put you in another hotel at our expense tonight and then come back tomorrow and we will get you a room that is not handicapped, not on the first floor by an entrance (since you are a single, middle-aged woman and you will feel safer and we should have never assigned a single woman a first floor room by a side entrance in the first place).  Alex was arrogant, condescending,  verbally abusive and just plain rude.  Happy ending though.   Linda at Fairfield Inn apparently had heard stories about Alex, welcomed me with open arms (I was almost in tears), hugged me Happy New Year, treated me with respect and dignity, and the whole staff at Fairfield was fabulous.  Plus, they had an incredible free breakfast there - and Courtyard did not.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r326874405-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -741,9 +822,6 @@
     <t>Free coffee in room but none down stairs. Starbucks is never free. With all the other things going on here it's not a deal breaker. This place can't be beat for the money. Great location, very clean and updated. Wonderful staff. I will stay here every time I'm in town. More</t>
   </si>
   <si>
-    <t>Bruce J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r323161527-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,9 +849,6 @@
     <t>I cannot believe in $100 a night hotel makes me pay $2 for coffee. Beyond that that service at the breakfast bar was so so. Three people more interested in themselves than their customers. I wish I had stayed at the Hampton Inn across the street. Would have had free coffee and breakfast. I mean I knew breakfast would cost, but usually get free coffee at a courtyard.More</t>
   </si>
   <si>
-    <t>kym72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r319530752-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,9 +873,6 @@
     <t>Overall, I was very pleased with the hotel.  The location was very close to NAS and even though it sits on I-30 the noise from the highway was not an issue.  The hotel was very clean and our room well taken care of.  The weather was so hot that we were even able to enjoy the outdoor pool and jacuzzi area although I do wish that it had been skimmed for leaves -- but we understand most Texans aren't going to be using the pool or jacuzzi in October.  My only concern was staffing.  We did a mobile/express check-in and nothing was prepared upon our arrival.  We were also told that we would receive complimentary breakfast and found out, along with many others, that this was not true.  The staff at the coffee/breakfast bar was extremely limited - one person to handle all orders (coffee, lattes, breakfasts)- and the five people in line in front of me were all told the same thing about the breakfast being complimentary.  None of us were on "the list" so we did not receive the complimentary breakfast we were promised at check-in.  I also believe that the online registration for the hotel was incorrect because several of us also stated that we saw the breakfast in our reservation process as well.  I thought this situation could have been handled by management far better than it was.  There were two corporate groups staying at the...Overall, I was very pleased with the hotel.  The location was very close to NAS and even though it sits on I-30 the noise from the highway was not an issue.  The hotel was very clean and our room well taken care of.  The weather was so hot that we were even able to enjoy the outdoor pool and jacuzzi area although I do wish that it had been skimmed for leaves -- but we understand most Texans aren't going to be using the pool or jacuzzi in October.  My only concern was staffing.  We did a mobile/express check-in and nothing was prepared upon our arrival.  We were also told that we would receive complimentary breakfast and found out, along with many others, that this was not true.  The staff at the coffee/breakfast bar was extremely limited - one person to handle all orders (coffee, lattes, breakfasts)- and the five people in line in front of me were all told the same thing about the breakfast being complimentary.  None of us were on "the list" so we did not receive the complimentary breakfast we were promised at check-in.  I also believe that the online registration for the hotel was incorrect because several of us also stated that we saw the breakfast in our reservation process as well.  I thought this situation could have been handled by management far better than it was.  There were two corporate groups staying at the hotel over Columbus Day weekend and they were all late in getting their "promised" breakfasts due to lack of staffing and they also ended up having to pay for it.  On a holiday weekend with multiple corporate groups, staffing should be upped to appropriately handle your customers.  That being said, I would stay here again.  The rate was good and the quality/cleanliness of the hotel really met our needs.More</t>
   </si>
   <si>
-    <t>Kathy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r308138976-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -828,9 +900,6 @@
     <t>I chose the Courtyard and I-30 due to its convenient location to TCU during a trip to attend the Junior Van Cliburn competition held on campus.  The Courtyard was a quick 5-10 minute drive and avoided much of the tangled construction mess around Fort Worth.  The immediate neighborhood around the hotel is not full of restaurants or things to do, and the hotel itself is a typical Courtyard.  We enjoyed using the pool.  There was a bit of  noise from the highway and from military planes.More</t>
   </si>
   <si>
-    <t>Ernice W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r305969085-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -856,9 +925,6 @@
   </si>
   <si>
     <t>Upon arriving at the Hotel, the Staff was Amazing!!! Got us checked in Quickly - it was an overnight Girl trip (8 of us) Staff was so friendly and helpful. Room was nice and clean. Good Location close to restaurants and shopping. Would DEFINITELY stay there again and highly recommend you stay there too!!!More</t>
-  </si>
-  <si>
-    <t>Caroline B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r293370580-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -890,9 +956,6 @@
 But, the main reason I am writing this review is one of your employees,"Aaron Moore" went above and beyond his duties to help me out of a major jam. The store where I was sent to work at all week ran out of toner, I could not copy and send my receipts and sales reports. This is really important part of my job and I have to do it every night. On top of that, the store has double sided receipts (to save a tree) that have to be converted onto one sheet of paper so I can fax it all to my boss in California. Aaron was just awesome, he calmed me down and said "I will work this out...My stay at Marriott Courtyard Forth Worth was really nice. The room was clean and the King size bed was comfortable. The one thing It needed was brighter light for the desk area. When I worked at night doing my paperwork I was having a hard time seeing even with all the lights on in the room. The food and foodservice workers were great. However, I would suggest on Friday and Saturday night that this area should have extended hours. I saw so many people coming in wanting to have a little something before going off to bed. I think this would accommodate your guests better and will also increase your sales even if only open an hour longer.But, the main reason I am writing this review is one of your employees,"Aaron Moore" went above and beyond his duties to help me out of a major jam. The store where I was sent to work at all week ran out of toner, I could not copy and send my receipts and sales reports. This is really important part of my job and I have to do it every night. On top of that, the store has double sided receipts (to save a tree) that have to be converted onto one sheet of paper so I can fax it all to my boss in California. Aaron was just awesome, he calmed me down and said "I will work this out and we'll get this done!" He worked it out for me and continued to help me both nights when I got back to the hotel after 12 hours of work. I'm so grateful for his help and his time, we all need a little Aaron in our life. Take care of this employee, they're hard to come by today...Thank you Marriott Courtyard Fort Worth, I will return!Caroline B.More</t>
   </si>
   <si>
-    <t>Frances S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r291581312-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -917,9 +980,6 @@
     <t>My husband and I went through priceline like we always do to get our rooms never had a problem.Well when we checked into this hotel the guy asked for a credit card no problem, well they ended charging us twice for the room.The whole time I was talking to one of the managers she thought it was funny.Finally after 3 days they refunded money but what priceline charged us not what they charged us.On top of all that the wifi didn't workMore</t>
   </si>
   <si>
-    <t>pcrodriguez78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r288140287-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -944,9 +1004,6 @@
     <t>This was nice stay.  The staff was very friendly and greeted us every time we entered or left the building.  The cleaning/linen service personnel were excellent; I never had a complaint about my room.  I enjoyed my king bed and especially enjoyed the couch and coffee table which were just the right distance from the TV.  Never had a problem with the Wi-Fi, it worked great every time I needed it.  Their gym is small, but then that’s usually the case with most hotels.  There were treadmills, elliptical, Stairmaster and free weights.  Never got around to trying out the pool, but it did look nice.  Their Bistro café had a great oatmeal breakfast and also an awesome egg, cheese and bacon sandwich.  The hotel is located right off of I-30 and just down the street from a local shopping center w/an Albertson.  There’s also an Applebee’s and the Ridgmar Mall.More</t>
   </si>
   <si>
-    <t>Angela_Wollongong</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r285416745-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,9 +1026,6 @@
   </si>
   <si>
     <t>We received a friendly welcome by check in staff, and parking and access off the highways were easy. The room seems expensive compared to other chains as there is no breakfast or evening drinks that we've come to expect from hotels in the USA. The room was clean but on the small side. It also had a very weird layout. The mini fridge was wedged between the wall and the sofa. The sofa almost touched the end of the bed. There was only about a 6 inch gap to get through to get into the right side of the bed.There was nothing wrong with is place, and it's a short walk to Applebee's for dinner, but I think you could get a bigger room and better value for your money elsewhere.More</t>
-  </si>
-  <si>
-    <t>William G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r275142516-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1013,9 +1067,6 @@
 It was such a bad meal (that did taste good) that I simply just...Generally speaking Courtyard Hotels have been our favorite stops when traveling. Unfortunately the more I stay at Courtyards, the more I realize they are seriously inconsistent.Don't get me wrong - this is not a bad hotel, it just doesn't live up to its name.- When I entered my room, it stunk of mold or mildew or something, and the one mattress was stained (a fairly big ugly looking stain), and the other the bed skirt was stained similarly. so I called and complained. The guy was good about it and switched me to a different room. Ok, so all good.- Then I went down to the Bistro for dinner. Great staff, but um - no one ever taught the guy there how to make anything, let alone a menu item.I ordered the Mediterranean Tostada... what I got was a flat bread pizza (uncut) covered in olives, mozzarella cheese (instead of Fetta - they were out of and it was the "closest we have"). I commented how it didn't look anything like the pic, and he said "oh - we also don't have black olives". Well, it wasn't even close olives or not...Then I ordered the "Spicy Chicken and Spinach" flatbread. Like the other, it was literally flat bread uncut, topped with spicy chicken and melted cheese - but um... missing spinach!It was such a bad meal (that did taste good) that I simply just started laughing and didn't complain about.And the wine... well I got a glass of cab. At some point I realized it was bad so asked for a new glass. The guy was really cool and supportive and he got a new bottle out. Unfortunately he obviously had never opened a bottle of wine in his life. So I showed him how, then had him smell the two glasses so he would know for the future how to tell if wine is bad (vinegar smell).The staff here was pretty good personality wise. All very friendly and supportive. That tells me the management needs to be changed. No one is teaching the employees how to do their job.No - I won't be back to this Courtyard again.More</t>
   </si>
   <si>
-    <t>happywanderer1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r264788349-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1043,9 +1094,6 @@
     <t>We stayed one night at the Courtyard hotel.  Rooms were up to Marriott standards.  Easy access to zoo, parks and dinner.  Staff was friendly and helpful.  Clean and quiet.  Will stay here again.  Our room did not have a mini fridge.  My daughter's room did.  Charged the same price. Go figure!More</t>
   </si>
   <si>
-    <t>Tylerdurdan333</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r263364289-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1073,9 +1121,6 @@
     <t>My wife and I,were  very pleased to be greeted by a very friendly gentleman upon checkin that treated us like we were family!.We requested a room on the top floor,but arrived to find we had been given a room on a floor below the top.I went back to the checkin desk to ask why I'd been put on this floor,He was so helpful and fast In moving us to a room on the top floor while mentioning breakfast in the morning being worth waking up for!;)We did enjoy the breakfast especially Starbucks coffee is absolutely he greatest we give you a 10More</t>
   </si>
   <si>
-    <t>Craig D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r263252503-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1097,9 +1142,6 @@
     <t>Not much to report here - I checked in at 11:30 PM and left at 7:30 AM. Check in was fast and efficient and my first floor room was right around the corner. I noticed some signs of aging in the room but clean and comfortable. I chose this because the price was lower than most other area hotels while keeping with a major brand.More</t>
   </si>
   <si>
-    <t>Paul K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r259396933-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1124,9 +1166,6 @@
     <t>Why would a hotel chain schedule the carpet cleaners to work at night ?? The parked outside my room and ran their equipment until midnight !!! Why can't carpets be cleaned during the day?. It was like a lawnmower running outside the room... Very annoying !! I stay at Hilton properties because they usually take care of their customers, not here....More</t>
   </si>
   <si>
-    <t>Donna C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r254325835-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1193,6 @@
     <t>Our room was nice, clean and okay size. The bed and bedding was comfortable and clean. The Lobby area was really spacious, clean and enjoyable for visiting. We were able to sit and visit with family for some time and was never bothered and even had the waitress at the bar checking on us throughout the evening. Service was good and everyone was very courteous. We didn’t have time for breakfast here but we did order a Starbucks drink and was very disappointed. It was as if they had no idea what they were doing when they made it. It wasn’t even close to the drink that I ordered. I would recommend finding an actual Starbucks instead of ordering from them.More</t>
   </si>
   <si>
-    <t>Lowryk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r249793022-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1181,9 +1217,6 @@
     <t>The front desk receptionist was extremely rude last night (1/17/15).  He let us know that our teenage children were running amuck when they only went outside for a celebratory birthday plunge in their open hot tub.  We had all been sitting inside together(during the shift change) until the kiddos went outside for a whole 5 minutes.  We were here with a cheer competition so we understand the importance of quiet.  For the man to claim that our children were running amuck and a father was cursing is incredibly wrong.  We were all there in fun.....and spending money there.   I will NEVER stay at that Marriott again.  Marriott is our chosen hotel, but not at this location ever again.  I will also inform our gym that they should not recommend this hotel again.More</t>
   </si>
   <si>
-    <t>Bren G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r245685324-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1208,9 +1241,6 @@
     <t>Really loved our stay at the hotel.  Comfortable beds.  Did you know the bed coverlets are light and easily washable...not a huge bulky comforter that is not washed after each guests.    These light coverlets makes a huge difference...in cleanliness.  Great parking. Very quiet.  David is at the bistro bar and is an excellent barista.  He will be moving onward (as I understand)...so hurry and stay so you can have the pleasure of his fine(Excellent)  customer service skills. A loss to lose him for certain.   Matter a fact....the only complaint that I have( and wish there were none...because is such a nice hotel)...is the other staff that fills in when David is out.  They need further training.  Unfortunately, I had an  experience with  them ...choosing to basically nearly argue with me on how to make a Chai Tea Latte. I finally left without a Tea...seeing as they chose to make it with a shot of expresso !  I hate coffee!  That is not how it is made!  They had a difficult time trying to refund my credit card charge....but did refund my money. Again...just need training.  The breakfast sandwich with egg whites and spinach and ham....I think is better to choose something else than that on the menu....if you dine in for breakfast.  Something was really off with it.  The last thing...if you need help with the computer or printer...seek a manager.. I was told to "go over there and use...Really loved our stay at the hotel.  Comfortable beds.  Did you know the bed coverlets are light and easily washable...not a huge bulky comforter that is not washed after each guests.    These light coverlets makes a huge difference...in cleanliness.  Great parking. Very quiet.  David is at the bistro bar and is an excellent barista.  He will be moving onward (as I understand)...so hurry and stay so you can have the pleasure of his fine(Excellent)  customer service skills. A loss to lose him for certain.   Matter a fact....the only complaint that I have( and wish there were none...because is such a nice hotel)...is the other staff that fills in when David is out.  They need further training.  Unfortunately, I had an  experience with  them ...choosing to basically nearly argue with me on how to make a Chai Tea Latte. I finally left without a Tea...seeing as they chose to make it with a shot of expresso !  I hate coffee!  That is not how it is made!  They had a difficult time trying to refund my credit card charge....but did refund my money. Again...just need training.  The breakfast sandwich with egg whites and spinach and ham....I think is better to choose something else than that on the menu....if you dine in for breakfast.  Something was really off with it.  The last thing...if you need help with the computer or printer...seek a manager.. I was told to "go over there and use it...it is easy!"  Neither were working.  Fortunately, I found my husband and he helped --get my boarding pass printed.   The new staff just needs some training on customer service.  I know there hearts are right-- they just need some more training.Please do stay here as the hotel is very clean and nice.More</t>
   </si>
   <si>
-    <t>Adriene S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r238901708-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1229,9 +1259,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Jessica S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r237777874-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1247,9 +1274,6 @@
     <t>Great room &amp; Great service from staff. Easy parking. Within 2-5 min drive from various stores and eateries. The breakfast options were very slim, and did not like having a grab and go style. Hallways were a little louder than average- I could hear every door slam shut or  people walking. Will stay again next time in the area- will just know to bring own items for breakfast.</t>
   </si>
   <si>
-    <t>msroy616</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r233176044-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +1290,6 @@
   </si>
   <si>
     <t>September 2014</t>
-  </si>
-  <si>
-    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r228023696-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1290,7 +1311,7 @@
 High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. 
 My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!
 The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.
-Our guest room was bright with pleasing decor. Space was a bit tight when luggage...Positives: clean, stunning design, good priceNegatives: no free breakfast or mini-fridgeAlthough it sits squarely in a suburban area, this place feels a lot like a downtown hotel. The main building and parking space take up most of the lot, with relatively little landscaping. A multistory office building and parking garage directly behind the hotel add to the urban vibe. (Note: these buildings block the view from rooms on the back side of the hotel. We stayed in one of them.)Inside, the hotel is extremely attractive. Designers incorporated a wide variety of textures and colors into the decor, and the layout is easy to follow. Public areas and guest rooms are well-appointed, inviting and comfortable.High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.Our guest room was bright with pleasing decor. Space was a bit tight when luggage was added to the furniture already inside. Even without our gear we were unable to maneuver the luggage cart past the bathroom door. We parked the cart just inside the front door and carried items into our sleeping quarters.The mattress was firmer than we prefer, but we slept well enough on it. Other than a couple of shaky lamp stands the room and furnishings were in good condition. The air conditioner performed flawlessly.In our opinion, the biggest deficiencies of this hotel are the lack of (1) free breakfasts and (2) mini-refrigerators. My guess is most of their target population dines at corporate expense, so complimentary meals and refrigerators for leftovers and drinks are not essential (or desirable).The Bottom Line -This hotel is a great choice for business travelers and couples with little luggage and equipment. Space is somewhat constrained for vacationers with a lot of gear.We knew about the lack of breakfast and refrigerator when reservations were made, but chose to...MoreShow less</t>
+Our guest room was bright with pleasing decor. Space was a bit tight when luggage...Positives: clean, stunning design, good priceNegatives: no free breakfast or mini-fridgeAlthough it sits squarely in a suburban area, this place feels a lot like a downtown hotel. The main building and parking space take up most of the lot, with relatively little landscaping. A multistory office building and parking garage directly behind the hotel add to the urban vibe. (Note: these buildings block the view from rooms on the back side of the hotel. We stayed in one of them.)Inside, the hotel is extremely attractive. Designers incorporated a wide variety of textures and colors into the decor, and the layout is easy to follow. Public areas and guest rooms are well-appointed, inviting and comfortable.High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.Our guest room was bright with pleasing decor. Space was a bit tight when luggage was added to the furniture already inside. Even without our gear we were unable to maneuver the luggage cart past the bathroom door. We parked the cart just inside the front door and carried items into our sleeping quarters.The mattress was firmer than we prefer, but we slept well enough on it. Other than a couple of shaky lamp stands the room and furnishings were in good condition. The air conditioner performed flawlessly.In our opinion, the biggest deficiencies of this hotel are the lack of (1) free breakfasts and (2) mini-refrigerators. My guess is most of their target population dines at corporate expense, so complimentary meals and refrigerators for leftovers and drinks are not essential (or desirable).The Bottom Line -This hotel is a great choice for business travelers and couples with little luggage and equipment. Space is somewhat constrained for vacationers with a lot of gear.We knew about the lack of breakfast and refrigerator when reservations were made, but chose to stay because this hotel sat directly along our route of travel and the price didn't bust the budget.It met our needs in an elegant fashion for one night. However, had we needed to stay two or more evenings We would have found a hotel with a refrigerator.MoreShow less</t>
   </si>
   <si>
     <t>August 2014</t>
@@ -1303,10 +1324,7 @@
 High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. 
 My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!
 The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.
-Our guest room was bright with pleasing decor. Space was a bit tight when luggage...Positives: clean, stunning design, good priceNegatives: no free breakfast or mini-fridgeAlthough it sits squarely in a suburban area, this place feels a lot like a downtown hotel. The main building and parking space take up most of the lot, with relatively little landscaping. A multistory office building and parking garage directly behind the hotel add to the urban vibe. (Note: these buildings block the view from rooms on the back side of the hotel. We stayed in one of them.)Inside, the hotel is extremely attractive. Designers incorporated a wide variety of textures and colors into the decor, and the layout is easy to follow. Public areas and guest rooms are well-appointed, inviting and comfortable.High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.Our guest room was bright with pleasing decor. Space was a bit tight when luggage was added to the furniture already inside. Even without our gear we were unable to maneuver the luggage cart past the bathroom door. We parked the cart just inside the front door and carried items into our sleeping quarters.The mattress was firmer than we prefer, but we slept well enough on it. Other than a couple of shaky lamp stands the room and furnishings were in good condition. The air conditioner performed flawlessly.In our opinion, the biggest deficiencies of this hotel are the lack of (1) free breakfasts and (2) mini-refrigerators. My guess is most of their target population dines at corporate expense, so complimentary meals and refrigerators for leftovers and drinks are not essential (or desirable).The Bottom Line -This hotel is a great choice for business travelers and couples with little luggage and equipment. Space is somewhat constrained for vacationers with a lot of gear.We knew about the lack of breakfast and refrigerator when reservations were made, but chose to...More</t>
-  </si>
-  <si>
-    <t>susanned</t>
+Our guest room was bright with pleasing decor. Space was a bit tight when luggage...Positives: clean, stunning design, good priceNegatives: no free breakfast or mini-fridgeAlthough it sits squarely in a suburban area, this place feels a lot like a downtown hotel. The main building and parking space take up most of the lot, with relatively little landscaping. A multistory office building and parking garage directly behind the hotel add to the urban vibe. (Note: these buildings block the view from rooms on the back side of the hotel. We stayed in one of them.)Inside, the hotel is extremely attractive. Designers incorporated a wide variety of textures and colors into the decor, and the layout is easy to follow. Public areas and guest rooms are well-appointed, inviting and comfortable.High tech tools abound, particularly in the lobby and bistro. Booths equipped with private televisions, perfect for small football watch parties, stretch across one side of the lounge. The business center features two computers with large monitors. My favorite gadget was a touch screen video panel across from the front desk. It replaced the traditional whiteboard seen in some hotels. With just a few touches you can learn about local weather, hotel events, entertainment and more. Cool!The hotel was clean throughout, even in the hallways. This was nice to see, as we've recently stayed in places where rooms were clean, but hallway carpets were stained and grungy.Our guest room was bright with pleasing decor. Space was a bit tight when luggage was added to the furniture already inside. Even without our gear we were unable to maneuver the luggage cart past the bathroom door. We parked the cart just inside the front door and carried items into our sleeping quarters.The mattress was firmer than we prefer, but we slept well enough on it. Other than a couple of shaky lamp stands the room and furnishings were in good condition. The air conditioner performed flawlessly.In our opinion, the biggest deficiencies of this hotel are the lack of (1) free breakfasts and (2) mini-refrigerators. My guess is most of their target population dines at corporate expense, so complimentary meals and refrigerators for leftovers and drinks are not essential (or desirable).The Bottom Line -This hotel is a great choice for business travelers and couples with little luggage and equipment. Space is somewhat constrained for vacationers with a lot of gear.We knew about the lack of breakfast and refrigerator when reservations were made, but chose to stay because this hotel sat directly along our route of travel and the price didn't bust the budget.It met our needs in an elegant fashion for one night. However, had we needed to stay two or more evenings We would have found a hotel with a refrigerator.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r218803877-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1327,9 +1345,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>oktraveler771</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r205543881-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1345,9 +1360,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>OoohDonna2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r201092279-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1366,9 +1378,6 @@
     <t>I agree with a previous traveler that stated the hotel needs to recognize Elite Members.  First of all, I arrived at the hotel around 11:30pm so the inside door was locked and required a room key to open.  I rang the bell and someone arrived at the desk and gestured for me to open the door with my key...seriously?  He saw me standing there with two suitcases next to me.  He finally unlocked the door.  Took my name and did not acknowledge my Platinum status, in fact, when I asked if there were any upgrades for a Platinum member, he said "what kind were you looking for?".  I was taken aback because no one ever asked me this before - at other Marriott brands, they were happy to look for me.  He didn't even look at the computer and stated "no, there's nothing".  Also, I did not get asked if I wanted points or an amenity.  The lobby is nice, but the rooms are small and the bathroom shower liner was torn and smelled of mildew.  The view from my room was of a parking garage, and it was so close I couldn't even see the sky to see if it was sunny or cloudy.  I could also hear the noise of the highway.  I was supposed to stay 4 nights, but checked out this morning and booked a Fairfield Inn nearby.More</t>
   </si>
   <si>
-    <t>AJfromCO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r200630970-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1393,7 +1402,203 @@
     <t>Everything I needed and hoped for was provided. Close to a grocery store also. Good rate and very kind staff indeed. Checked in and almost felt like hanging out in the lobby and talking more to the front desk staff.More</t>
   </si>
   <si>
-    <t>Jackcatscal</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r185290155-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>185290155</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed!</t>
+  </si>
+  <si>
+    <t>This is the 2nd time I have stayed here.  It is always clean and the staff goes above and beyond.  Both times I've checked in the front desk has been great.  Will definitely stay here again and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Laquintha R, Director of Sales at Courtyard Fort Worth I-30 West Near NAS JRB, responded to this reviewResponded November 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2013</t>
+  </si>
+  <si>
+    <t>This is the 2nd time I have stayed here.  It is always clean and the staff goes above and beyond.  Both times I've checked in the front desk has been great.  Will definitely stay here again and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r182745654-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>182745654</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Hit and Miss Here</t>
+  </si>
+  <si>
+    <t>While there were some terrific things about this hotel--fairly good location, despite the difficulty in finding it initially; free hot breakfast made to order; warm, professional check-in service--there were some low's, too. Namely, I found two roaches in the room, in spite of it being otherwise (seemingly) clean. While the evening staff was terrific--welcoming, thoughtful--the morning staff was rushed, brusque (at best) and not particularly professional. It was fine but we won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>While there were some terrific things about this hotel--fairly good location, despite the difficulty in finding it initially; free hot breakfast made to order; warm, professional check-in service--there were some low's, too. Namely, I found two roaches in the room, in spite of it being otherwise (seemingly) clean. While the evening staff was terrific--welcoming, thoughtful--the morning staff was rushed, brusque (at best) and not particularly professional. It was fine but we won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r181269150-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>181269150</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Great room but poor food and poor service</t>
+  </si>
+  <si>
+    <t>Nice room but every time I went down stairs to get something to eat, nobody would be behind the counter at the café to assist me. Pretty sad considering they don't offer anything FREE at this hotel... MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice room but every time I went down stairs to get something to eat, nobody would be behind the counter at the café to assist me. Pretty sad considering they don't offer anything FREE at this hotel... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r179766540-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>179766540</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>This hotel would build goodwill by appreciating elite members</t>
+  </si>
+  <si>
+    <t>This Courtyard had a lobby renovation about a year ago and now it is quite nice.  The guest rooms have recently been redone and are vastly improved. They are fresh and clean with comfortable beds. Like other reviewers mentioned if you have a room that faces the freeway the noise is very loud, but only if your balcony door is open.  Sitting on the balcony one has lots and lots of noise.
+I have stayed at this location 2-3 times a year over the last 10 years.  You would think that the front desk would occasionally thank me for my repeat business or for being Platinum with Marriott Rewards.  It has never once happened.  There is no recognition for repeat business or being top tier with Marriott Rewards.
+If this hotel wants to learn how they could improve take a look at this example: The night before I had stayed at the Dallas Courtyard Medical/Market Center.  When I checked in they immediately thanked me for my business and being a Platinum Member.  They not only gave me the 400 welcome points, but a goody bag with snacks and water.  Then they offered me breakfast for two.  Now that's impressive and going way beyond!  I also noticed on tripadvisor that the manager (in Dallas) is proactive and addresses customer's reviews. Courtyard I-30  does none of that.  I am so underwhelmed with your service, but completely impressed with Dallas Medical/Market.  If you...This Courtyard had a lobby renovation about a year ago and now it is quite nice.  The guest rooms have recently been redone and are vastly improved. They are fresh and clean with comfortable beds. Like other reviewers mentioned if you have a room that faces the freeway the noise is very loud, but only if your balcony door is open.  Sitting on the balcony one has lots and lots of noise.I have stayed at this location 2-3 times a year over the last 10 years.  You would think that the front desk would occasionally thank me for my repeat business or for being Platinum with Marriott Rewards.  It has never once happened.  There is no recognition for repeat business or being top tier with Marriott Rewards.If this hotel wants to learn how they could improve take a look at this example: The night before I had stayed at the Dallas Courtyard Medical/Market Center.  When I checked in they immediately thanked me for my business and being a Platinum Member.  They not only gave me the 400 welcome points, but a goody bag with snacks and water.  Then they offered me breakfast for two.  Now that's impressive and going way beyond!  I also noticed on tripadvisor that the manager (in Dallas) is proactive and addresses customer's reviews. Courtyard I-30  does none of that.  I am so underwhelmed with your service, but completely impressed with Dallas Medical/Market.  If you care take a lesson.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This Courtyard had a lobby renovation about a year ago and now it is quite nice.  The guest rooms have recently been redone and are vastly improved. They are fresh and clean with comfortable beds. Like other reviewers mentioned if you have a room that faces the freeway the noise is very loud, but only if your balcony door is open.  Sitting on the balcony one has lots and lots of noise.
+I have stayed at this location 2-3 times a year over the last 10 years.  You would think that the front desk would occasionally thank me for my repeat business or for being Platinum with Marriott Rewards.  It has never once happened.  There is no recognition for repeat business or being top tier with Marriott Rewards.
+If this hotel wants to learn how they could improve take a look at this example: The night before I had stayed at the Dallas Courtyard Medical/Market Center.  When I checked in they immediately thanked me for my business and being a Platinum Member.  They not only gave me the 400 welcome points, but a goody bag with snacks and water.  Then they offered me breakfast for two.  Now that's impressive and going way beyond!  I also noticed on tripadvisor that the manager (in Dallas) is proactive and addresses customer's reviews. Courtyard I-30  does none of that.  I am so underwhelmed with your service, but completely impressed with Dallas Medical/Market.  If you...This Courtyard had a lobby renovation about a year ago and now it is quite nice.  The guest rooms have recently been redone and are vastly improved. They are fresh and clean with comfortable beds. Like other reviewers mentioned if you have a room that faces the freeway the noise is very loud, but only if your balcony door is open.  Sitting on the balcony one has lots and lots of noise.I have stayed at this location 2-3 times a year over the last 10 years.  You would think that the front desk would occasionally thank me for my repeat business or for being Platinum with Marriott Rewards.  It has never once happened.  There is no recognition for repeat business or being top tier with Marriott Rewards.If this hotel wants to learn how they could improve take a look at this example: The night before I had stayed at the Dallas Courtyard Medical/Market Center.  When I checked in they immediately thanked me for my business and being a Platinum Member.  They not only gave me the 400 welcome points, but a goody bag with snacks and water.  Then they offered me breakfast for two.  Now that's impressive and going way beyond!  I also noticed on tripadvisor that the manager (in Dallas) is proactive and addresses customer's reviews. Courtyard I-30  does none of that.  I am so underwhelmed with your service, but completely impressed with Dallas Medical/Market.  If you care take a lesson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r178894701-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>178894701</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Short staffed hotel results in burden for customers</t>
+  </si>
+  <si>
+    <t>The property itself if nicely maintained, and the two staff members I met today were very nice.  However, we really needed to wifi to work....it did not work in our room on the second floor.  After calling the operator, she told me to call an 888 tech suport I number.  I spend 20 minutes on the phone with them trying to UNSUCCESSFULLY resolve the issue,  At 10:15 pm the lightbulb (only one) in my bathroom burnt out.   Called front desk, was told someone would be up.  Checked back in 30 minutes, was told the front desk person was the only one on staff, and couldn't leave the desk until his replacement arrived.  Here I sit, 45 minutes later  with a sleeping child who will wake up when /if someone ever arrives.  Unable to use the bathroom in the dark.    Seriously?!?!?MoreShow less</t>
+  </si>
+  <si>
+    <t>The property itself if nicely maintained, and the two staff members I met today were very nice.  However, we really needed to wifi to work....it did not work in our room on the second floor.  After calling the operator, she told me to call an 888 tech suport I number.  I spend 20 minutes on the phone with them trying to UNSUCCESSFULLY resolve the issue,  At 10:15 pm the lightbulb (only one) in my bathroom burnt out.   Called front desk, was told someone would be up.  Checked back in 30 minutes, was told the front desk person was the only one on staff, and couldn't leave the desk until his replacement arrived.  Here I sit, 45 minutes later  with a sleeping child who will wake up when /if someone ever arrives.  Unable to use the bathroom in the dark.    Seriously?!?!?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r173087341-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>173087341</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and clean.</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel and if we return to Fort Worth, we'll stay here again. It's right off the expressway. When we booked I was a little worried about expressway notice but as it turned out we never heard a car engine or horn. The front desk staff was polite and helpful. They recommended a few restaurants to us that turned out to be really good. The lobby is very modern and well designed. It has a small bar and a bistro. It's a very comfortable area to hang out, have a drink, kick your feet up and surf the web on your tablet. The only problem is that the front desk clerk is also the bartender and chef. We never had a problem with waiting but I can imagine that it could be frustrating if your're trying to check in and the front desk clerk is across the lobby mixing drinks and making sandwiches. The pool is small but clean. We chilled at the pool in the late afternoon and we were the only ones in the pool. The room was spacious and clean. The bed was comfortable. So all in all no complaints. I stayed here with my wife. No kids. I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel and if we return to Fort Worth, we'll stay here again. It's right off the expressway. When we booked I was a little worried about expressway notice but as it turned out we never heard a car engine or horn. The front desk staff was polite and helpful. They recommended a few restaurants to us that turned out to be really good. The lobby is very modern and well designed. It has a small bar and a bistro. It's a very comfortable area to hang out, have a drink, kick your feet up and surf the web on your tablet. The only problem is that the front desk clerk is also the bartender and chef. We never had a problem with waiting but I can imagine that it could be frustrating if your're trying to check in and the front desk clerk is across the lobby mixing drinks and making sandwiches. The pool is small but clean. We chilled at the pool in the late afternoon and we were the only ones in the pool. The room was spacious and clean. The bed was comfortable. So all in all no complaints. I stayed here with my wife. No kids. I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r168923703-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>168923703</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>short staffed</t>
+  </si>
+  <si>
+    <t>When we showed up to check in no one was at the front desk. After waiting 20 minutes someone yelled from the back of the bistro counter "I’ll be right there after I make this sandwich". Really the front desk cleric has to be the cook to. After being checked in there were kids playing in the pool until 10;30 pm. The noise was to load to sleep. The next day I called down to get a late check out and the cleric said rudely fine but you have you be out at 1pm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r163516440-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>163516440</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Good location, nice staff!</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times over the past couple of years. The staff remembers us every time, and is very friendly and accommodating. This last trip, a glitch in our online reservation resulted in our overstaying, the staff contacted us, and set up the room for another night quickly and efficiently.We will stay here every trip to Fort Worth.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r162759349-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>162759349</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>This time there were some glitches</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard several times because of the proximity to my mother's living facility coupled with the price.  This hotel usually has the better rates of Marriott properties in the Ft. Worth area.  We had trouble with our reservation on this last visit, partly due to the Marriott Rewards Elite Desk making an error in our initial reservation.  Prior to arriving at the hotel the Elite desk had confirmed my reservation with the correct rates paired with a free promotional stay I had earned earlier.  Upon check-in, the reservation with the error, was listed on the computer.  I tried to get help with the front desk to correct the problem.  They refused to look at my corrected confirmation e-mail so we could address the problem and then I was told that it was my problem and I would have to work with Marriott to fix it.  A simple error that should have taken 5 minutes to resolve by looking at e-mail and working with me resulted in 5 days of resolving the issue--the hotel blaming the Marriott reservation system and Marriott blaming the hotel for not researching the e-mails.  Also, the Wi-Fi in the room worked about 10% of the time.  I have had conversations with the GM of the hotel to discuss my issues and I am willing to give them another chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard several times because of the proximity to my mother's living facility coupled with the price.  This hotel usually has the better rates of Marriott properties in the Ft. Worth area.  We had trouble with our reservation on this last visit, partly due to the Marriott Rewards Elite Desk making an error in our initial reservation.  Prior to arriving at the hotel the Elite desk had confirmed my reservation with the correct rates paired with a free promotional stay I had earned earlier.  Upon check-in, the reservation with the error, was listed on the computer.  I tried to get help with the front desk to correct the problem.  They refused to look at my corrected confirmation e-mail so we could address the problem and then I was told that it was my problem and I would have to work with Marriott to fix it.  A simple error that should have taken 5 minutes to resolve by looking at e-mail and working with me resulted in 5 days of resolving the issue--the hotel blaming the Marriott reservation system and Marriott blaming the hotel for not researching the e-mails.  Also, the Wi-Fi in the room worked about 10% of the time.  I have had conversations with the GM of the hotel to discuss my issues and I am willing to give them another chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r150572227-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150572227</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay long or short term</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for a couple years now and this is the only place my husband like to stay in Fort Worth.  We try others but always come back here when in town.  Its also convenient to my aunt and my son area.  It has everything you need in the area and a restaurant very close.  The staff is friendly, very clean, very accommodating.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r140503520-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1417,9 +1622,6 @@
     <t>I've stayed in a number of hotels in this area.  This time, I picked the Courtyard on I-30 West, since it seemed the closest to the Lockheed facility on White Settlement Road.  That was a mistake.  Another Courtyard that I've stayed in, at Cityview, although a little more distant, would have been more convenient because of easier freeway access.  Additionally, the West Feeway Courtyard seemed older, the lobby more cramped, the rooms smaller, and the location really unattractive.  (If you stay there, make sure you ask for a room away from the freeway side, as I did.  The hotel abuts a very busy freeway, and I can imagine the traffic noise would be unacceptable.)More</t>
   </si>
   <si>
-    <t>Lindsey H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r135548583-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1441,9 +1643,6 @@
     <t>This hotel looks nice from the outside and inside the lobby until you lay down to sleep at night. The mattress' are horrible! Our backs hurt every morning we woke up and continued to hurt the whole time we were there! The front desk said "We are getting new mattress' in August", but this was June- so what good does that do us?? The pool was dirty and gross. The sides/tiles were covered in black pool scum. There was a big family of 10 (kids,parents, boyfriends, grandmas) that wasn't staying at the hotel that was allowed to come and swim everynight, that would take over the pool. The cafe was really overpriced. The bathroom was tiny and the vanity area had no counter space. It would be ok if 1 person was staying there, but definitely not for 3 adults. This hotel was overpriced and the staff didn't care if there quests were happy or comfortable.More</t>
   </si>
   <si>
-    <t>Paul J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r132149183-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1462,9 +1661,6 @@
     <t>I love this Marriott, especially the friendly expert service, environment, and the clean rooms. It is tucked away and doesn't come up on AT&amp;T Navigator, so you have to put in the address, 6330 West Freeway in Fort Worth to find it. Here's the deal guys, this hotel was chocked FULL of boy's baseball teams...and it was QUIET! Normally, boys teams are the worst and I was prepped for the same, but man, these guys know how to manage groups. From the front desk. Deidre is a spark of life behind the front desk and Eddie was very helpful and provided friendly service to us with our tv. Bottom line, folks, whether with family or Guard or business, it is rare to find a hotel so friendly and help. Look them up, you won't be disappointed!More</t>
   </si>
   <si>
-    <t>Robert C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r129926836-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1486,9 +1682,6 @@
     <t>I had the worst experiance while staying at this establishment. After the first night stay I discovered that the room automatic lock didn't work and I couldn't get out of the room. I was locked in for forty five minutes. The front desk tried to get me out from the hallway side to no avail. I finally used my truck key to force the lock open. After talking with the manager I was informed that she would have to ckeck my profile (not sure what that had to do with my safety). I was then informed I was with priceline. I was given the impression she was not concerned after that since I was with priceline. I was informed that someone would look at the lock. I never heard back from anyone. Don't stay here if you are with priceline and are not a long time guest at this establishment, they only care about the regulars.More</t>
   </si>
   <si>
-    <t>goldelitehouston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r127703792-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1510,9 +1703,6 @@
     <t>Beware of this hotel as burglars hit this place every few months especially when a truck show is in town as the crooks prey on fancy cars and trucks in the lots. On my 2nd stay at this location which is a Marriott franchise, woke up to my car and 4 others being broken into and items stolen. The worst part of this was the managers attitude towards me (Gold Elite, 80 nights per year) made me fill out an incident report and without furnishing a copy. She also informed me in a stern tone that they were not responsible and guests park at their own risk. Nothing new to inform me about but most Marriott's I stay at provide night time security guards to ward off criminals. Stay away from this hotel at all costs because it will cost you lost time and money getting your smashed window repaired and wasted time chasing your tail with these terrible management people. One manager was nice enough to offer an apology after I checked out, but too little too late.More</t>
   </si>
   <si>
-    <t>omaopatravellers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r122602707-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1531,9 +1721,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>glexible</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r119377181-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1552,9 +1739,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>rwt1344</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r115978902-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1573,9 +1757,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>epochlaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r101795684-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1597,9 +1778,6 @@
     <t>My son and I recently stayed at this hotel after booking a room through Priceline.  The hotel staff was very friendly (especially Dierdre) and were more than happy to answer questions regarding the city and area attractions.  The lobby is very nice with computers available and free wifi as well.  The room was certainly nice enough but there are a few things that could have used some work.  The bathroom looked like it had water damage at some point.  The repair work was very poorly done,  It looked like patching had been done and then someone simply painted over the textured wallpaper.  Also, the sink was outside of the bathroom, which is a personal peeve of mine.  We had one of the rooms that faced the parking garage.  I would not want  this view again as the garage essentially blocked most of the light from entering the room.  Also, there was a very bad odour near the elevators during our stay.  However, it was addressed by hotel staff and they did seem to rectify the problem.   The hotel did have a very nice air conditioned exercise room with t.v. and water cooler.  The pool area seemed very nice as well, although we did not get around to using it.There were no security issues whatsoever as the hotel is in a nice location in close proximity to great restaurants and shopping.More</t>
   </si>
   <si>
-    <t>robin051</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r76509913-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1618,9 +1796,6 @@
     <t>July 2010</t>
   </si>
   <si>
-    <t>Dawn8965</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r54191342-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1633,13 +1808,13 @@
     <t>If Your Looking for a safe/secure hotel DON'T STAY HERE!!!</t>
   </si>
   <si>
-    <t>We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front...We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front desk clerk.  There was a man in a t-shirt and jeans sitting in the lobby watching TV. From the lobby there is no clear view of the parking lot or the front door when your back is turned to it. I questioned this man if he know who was working security and he stated he was. This upset my husband to see no front desk clerk and the "security" guy sitting in the lobby watching tv with no clue as to what was going on outside. My husband went to find the front desk clerk who was in the office. When questioned why his "security" guy was watching tv instead of patrolling the parking lot, the only answer the desk clerk/manager could say was "i don't know why."  When the "security" guy heard us question the manager, he came up to the desk and started raising his voice to my husband and I. His temper and demeanor became more threatening and we asked for the police to be called to handle the situation. The manager/clerk had no control over the situation or his employee. We again reported the incident to the day manager when we checked out. I also reported both incidents to the Marriott Corporate offices, with no response. I realize that the hotel is not responsible for the break ins, but to see the "security" guy sitting in the lobby watching...MoreShow less</t>
+    <t>We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front...We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front desk clerk.  There was a man in a t-shirt and jeans sitting in the lobby watching TV. From the lobby there is no clear view of the parking lot or the front door when your back is turned to it. I questioned this man if he know who was working security and he stated he was. This upset my husband to see no front desk clerk and the "security" guy sitting in the lobby watching tv with no clue as to what was going on outside. My husband went to find the front desk clerk who was in the office. When questioned why his "security" guy was watching tv instead of patrolling the parking lot, the only answer the desk clerk/manager could say was "i don't know why."  When the "security" guy heard us question the manager, he came up to the desk and started raising his voice to my husband and I. His temper and demeanor became more threatening and we asked for the police to be called to handle the situation. The manager/clerk had no control over the situation or his employee. We again reported the incident to the day manager when we checked out. I also reported both incidents to the Marriott Corporate offices, with no response. I realize that the hotel is not responsible for the break ins, but to see the "security" guy sitting in the lobby watching tv instead of doing his job, is infuriating!!! This is the 2nd time in 3 years that our vehicle has broken into at this location. We have also advised the Ft Worth Stock Show and Rodeo committee to warn other staff/contestants of this location.    I also feel that i should not feel threatened by Marroitt employee who is supposed to make my stay more secure.MoreShow less</t>
   </si>
   <si>
     <t>January 2010</t>
   </si>
   <si>
-    <t>We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front...We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front desk clerk.  There was a man in a t-shirt and jeans sitting in the lobby watching TV. From the lobby there is no clear view of the parking lot or the front door when your back is turned to it. I questioned this man if he know who was working security and he stated he was. This upset my husband to see no front desk clerk and the "security" guy sitting in the lobby watching tv with no clue as to what was going on outside. My husband went to find the front desk clerk who was in the office. When questioned why his "security" guy was watching tv instead of patrolling the parking lot, the only answer the desk clerk/manager could say was "i don't know why."  When the "security" guy heard us question the manager, he came up to the desk and started raising his voice to my husband and I. His temper and demeanor became more threatening and we asked for the police to be called to handle the situation. The manager/clerk had no control over the situation or his employee. We again reported the incident to the day manager when we checked out. I also reported both incidents to the Marriott Corporate offices, with no response. I realize that the hotel is not responsible for the break ins, but to see the "security" guy sitting in the lobby watching...More</t>
+    <t>We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front...We were staying at the Courtyard during the Ft Worth stock show and rodeo. We arrived 1-17-10 and went on to the stock show to unload and set up. We returned to the hotel about 3:15 am. At 8:30 the next morning we went out to our truck only to find it broke into. The drivers side back window was smashed. The truck was only about 10 parking spaces from the front door of the hotel. We made a police report and also advised the managers, Patreace and Laquintha. They advised of the sign posted at the front door stating they are not responsible for break in. Ok, we saw that. We were told that the incident must have happened after the "security officer" had left at 6am. We had never seen security on premise when we returned that night of the break in. I questioned management on the name of the security officer and the company that he worked for. I was told that he was a Marriott employee and not hired through a security company. On Thursday evening we arrived at the hotel with one of our employees. It was 11:45pm. We walked to the front door and decided to go have dinner. At that time we did not see "security" in the hotel or in the parking lot. We all returned to the hotel at 1:15am. We walked in the front door and there was no front desk clerk.  There was a man in a t-shirt and jeans sitting in the lobby watching TV. From the lobby there is no clear view of the parking lot or the front door when your back is turned to it. I questioned this man if he know who was working security and he stated he was. This upset my husband to see no front desk clerk and the "security" guy sitting in the lobby watching tv with no clue as to what was going on outside. My husband went to find the front desk clerk who was in the office. When questioned why his "security" guy was watching tv instead of patrolling the parking lot, the only answer the desk clerk/manager could say was "i don't know why."  When the "security" guy heard us question the manager, he came up to the desk and started raising his voice to my husband and I. His temper and demeanor became more threatening and we asked for the police to be called to handle the situation. The manager/clerk had no control over the situation or his employee. We again reported the incident to the day manager when we checked out. I also reported both incidents to the Marriott Corporate offices, with no response. I realize that the hotel is not responsible for the break ins, but to see the "security" guy sitting in the lobby watching tv instead of doing his job, is infuriating!!! This is the 2nd time in 3 years that our vehicle has broken into at this location. We have also advised the Ft Worth Stock Show and Rodeo committee to warn other staff/contestants of this location.    I also feel that i should not feel threatened by Marroitt employee who is supposed to make my stay more secure.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r53880198-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -1660,9 +1835,6 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>KKAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r21760195-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1679,9 +1851,6 @@
   </si>
   <si>
     <t>I've stayed at this hotel at multiple times and thought it deserved a new review. First of all, this hotel is right off the highway and there's only one entrance to get in. So, if you miss it on the frontage road, you'll need to go back around. The lobby includes the front desk, a small bar and the breakfast area. It's very nice and clean and there's also a nice business center/desk area. The rooms are clean and the furniture is nice. My last room was on the 2nd floor on the side closes to the parking garage. At first I thought this might be a problem, but it turned out to be one of the quietest rooms I've stayed in. I actually slept in to almost 10! There are a ton of places to eat nearby and downtown is less than 10 minutes away. If you need to be in the Fort Worth area, you can't go wrong with this one.More</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d294848-r5392834-Courtyard_Fort_Worth_I_30_West_Near_NAS_JRB-Fort_Worth_Texas.html</t>
@@ -2222,47 +2391,43 @@
       <c r="A2" t="n">
         <v>52126</v>
       </c>
-      <c r="B2" t="n">
-        <v>127527</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2274,75 +2439,77 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52126</v>
       </c>
-      <c r="B3" t="n">
-        <v>127528</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
         <v>66</v>
@@ -2352,392 +2519,356 @@
       <c r="A4" t="n">
         <v>52126</v>
       </c>
-      <c r="B4" t="n">
-        <v>99530</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52126</v>
       </c>
-      <c r="B5" t="n">
-        <v>127529</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52126</v>
       </c>
-      <c r="B6" t="n">
-        <v>71314</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52126</v>
       </c>
-      <c r="B7" t="n">
-        <v>32477</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52126</v>
       </c>
-      <c r="B8" t="n">
-        <v>127530</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52126</v>
       </c>
-      <c r="B9" t="n">
-        <v>80176</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2748,449 +2879,439 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" t="s">
+        <v>92</v>
+      </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52126</v>
       </c>
-      <c r="B10" t="n">
-        <v>31950</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52126</v>
       </c>
-      <c r="B11" t="n">
-        <v>127531</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52126</v>
       </c>
-      <c r="B12" t="n">
-        <v>18964</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52126</v>
       </c>
-      <c r="B13" t="n">
-        <v>127532</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
         <v>148</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>153</v>
-      </c>
-      <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52126</v>
       </c>
-      <c r="B14" t="n">
-        <v>127533</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52126</v>
       </c>
-      <c r="B15" t="n">
-        <v>127534</v>
-      </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>171</v>
-      </c>
-      <c r="X15" t="s">
-        <v>172</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52126</v>
       </c>
-      <c r="B16" t="n">
-        <v>127535</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3204,132 +3325,116 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52126</v>
       </c>
-      <c r="B17" t="n">
-        <v>127536</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>187</v>
-      </c>
-      <c r="O17" t="s">
-        <v>65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52126</v>
       </c>
-      <c r="B18" t="n">
-        <v>15757</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3337,203 +3442,185 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>198</v>
-      </c>
-      <c r="X18" t="s">
-        <v>199</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52126</v>
       </c>
-      <c r="B19" t="n">
-        <v>127537</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>208</v>
-      </c>
-      <c r="X19" t="s">
-        <v>209</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52126</v>
       </c>
-      <c r="B20" t="n">
-        <v>127538</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52126</v>
       </c>
-      <c r="B21" t="n">
-        <v>124436</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>218</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3543,60 +3630,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52126</v>
       </c>
-      <c r="B22" t="n">
-        <v>127539</v>
-      </c>
-      <c r="C22" t="s">
-        <v>231</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3607,273 +3690,255 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>238</v>
-      </c>
-      <c r="X22" t="s">
-        <v>239</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52126</v>
       </c>
-      <c r="B23" t="n">
-        <v>33865</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52126</v>
       </c>
-      <c r="B24" t="n">
-        <v>45626</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52126</v>
       </c>
-      <c r="B25" t="n">
-        <v>20839</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52126</v>
       </c>
-      <c r="B26" t="n">
-        <v>127540</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3882,349 +3947,315 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52126</v>
       </c>
-      <c r="B27" t="n">
-        <v>2119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52126</v>
       </c>
-      <c r="B28" t="n">
-        <v>127541</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52126</v>
       </c>
-      <c r="B29" t="n">
-        <v>127542</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52126</v>
       </c>
-      <c r="B30" t="n">
-        <v>29909</v>
-      </c>
-      <c r="C30" t="s">
-        <v>308</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52126</v>
       </c>
-      <c r="B31" t="n">
-        <v>7134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>317</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>4</v>
@@ -4233,66 +4264,64 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="X31" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="Y31" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52126</v>
       </c>
-      <c r="B32" t="n">
-        <v>127543</v>
-      </c>
-      <c r="C32" t="s">
-        <v>327</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -4302,276 +4331,264 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="X32" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="Y32" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52126</v>
       </c>
-      <c r="B33" t="n">
-        <v>127544</v>
-      </c>
-      <c r="C33" t="s">
-        <v>337</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52126</v>
       </c>
-      <c r="B34" t="n">
-        <v>17414</v>
-      </c>
-      <c r="C34" t="s">
-        <v>347</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="X34" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="Y34" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52126</v>
       </c>
-      <c r="B35" t="n">
-        <v>10137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>355</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52126</v>
       </c>
-      <c r="B36" t="n">
-        <v>18894</v>
-      </c>
-      <c r="C36" t="s">
-        <v>364</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>4</v>
@@ -4580,267 +4597,253 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52126</v>
       </c>
-      <c r="B37" t="n">
-        <v>127545</v>
-      </c>
-      <c r="C37" t="s">
-        <v>374</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>247</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52126</v>
       </c>
-      <c r="B38" t="n">
-        <v>127546</v>
-      </c>
-      <c r="C38" t="s">
-        <v>383</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="X38" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="Y38" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52126</v>
       </c>
-      <c r="B39" t="n">
-        <v>127547</v>
-      </c>
-      <c r="C39" t="s">
-        <v>392</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
       <c r="Y39" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52126</v>
       </c>
-      <c r="B40" t="n">
-        <v>2798</v>
-      </c>
-      <c r="C40" t="s">
-        <v>399</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -4851,127 +4854,133 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
       <c r="Y40" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52126</v>
       </c>
-      <c r="B41" t="n">
-        <v>17392</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
       <c r="Y41" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52126</v>
       </c>
-      <c r="B42" t="n">
-        <v>127548</v>
-      </c>
-      <c r="C42" t="s">
-        <v>412</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>4</v>
@@ -4979,211 +4988,195 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>384</v>
+      </c>
+      <c r="X42" t="s">
+        <v>385</v>
+      </c>
       <c r="Y42" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52126</v>
       </c>
-      <c r="B43" t="n">
-        <v>127549</v>
-      </c>
-      <c r="C43" t="s">
-        <v>420</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>426</v>
-      </c>
-      <c r="O43" t="s">
-        <v>93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>392</v>
+      </c>
+      <c r="X43" t="s">
+        <v>393</v>
+      </c>
       <c r="Y43" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52126</v>
       </c>
-      <c r="B44" t="n">
-        <v>127550</v>
-      </c>
-      <c r="C44" t="s">
-        <v>427</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="J44" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
       <c r="Y44" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52126</v>
       </c>
-      <c r="B45" t="n">
-        <v>127551</v>
-      </c>
-      <c r="C45" t="s">
-        <v>433</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5191,129 +5184,113 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52126</v>
       </c>
-      <c r="B46" t="n">
-        <v>48436</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="J46" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>446</v>
-      </c>
-      <c r="X46" t="s">
-        <v>447</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52126</v>
       </c>
-      <c r="B47" t="n">
-        <v>127552</v>
-      </c>
-      <c r="C47" t="s">
-        <v>449</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="O47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5327,70 +5304,62 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52126</v>
       </c>
-      <c r="B48" t="n">
-        <v>2686</v>
-      </c>
-      <c r="C48" t="s">
-        <v>457</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="J48" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="K48" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5398,66 +5367,58 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52126</v>
       </c>
-      <c r="B49" t="n">
-        <v>40235</v>
-      </c>
-      <c r="C49" t="s">
-        <v>465</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="J49" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="K49" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="L49" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5469,70 +5430,66 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52126</v>
       </c>
-      <c r="B50" t="n">
-        <v>7548</v>
-      </c>
-      <c r="C50" t="s">
-        <v>472</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="J50" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="K50" t="s">
-        <v>476</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5540,70 +5497,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52126</v>
       </c>
-      <c r="B51" t="n">
-        <v>127553</v>
-      </c>
-      <c r="C51" t="s">
-        <v>480</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="O51" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5611,128 +5564,124 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52126</v>
       </c>
-      <c r="B52" t="n">
-        <v>127554</v>
-      </c>
-      <c r="C52" t="s">
-        <v>488</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>449</v>
+      </c>
+      <c r="X52" t="s">
+        <v>450</v>
+      </c>
       <c r="Y52" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52126</v>
       </c>
-      <c r="B53" t="n">
-        <v>127555</v>
-      </c>
-      <c r="C53" t="s">
-        <v>495</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
         <v>4</v>
@@ -5745,277 +5694,279 @@
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>458</v>
+      </c>
+      <c r="X53" t="s">
+        <v>459</v>
+      </c>
       <c r="Y53" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52126</v>
       </c>
-      <c r="B54" t="n">
-        <v>127556</v>
-      </c>
-      <c r="C54" t="s">
-        <v>502</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
+        <v>459</v>
+      </c>
       <c r="Y54" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52126</v>
       </c>
-      <c r="B55" t="n">
-        <v>127557</v>
-      </c>
-      <c r="C55" t="s">
-        <v>509</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>247</v>
+      </c>
+      <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="N55" t="s">
-        <v>515</v>
-      </c>
-      <c r="O55" t="s">
-        <v>82</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
         <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>458</v>
+      </c>
+      <c r="X55" t="s">
+        <v>459</v>
+      </c>
       <c r="Y55" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52126</v>
       </c>
-      <c r="B56" t="n">
-        <v>127558</v>
-      </c>
-      <c r="C56" t="s">
-        <v>517</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
       <c r="Y56" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52126</v>
       </c>
-      <c r="B57" t="n">
-        <v>127559</v>
-      </c>
-      <c r="C57" t="s">
-        <v>524</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="O57" t="s">
-        <v>65</v>
-      </c>
-      <c r="P57" t="n">
+        <v>63</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
         <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
       </c>
       <c r="R57" t="n">
         <v>3</v>
@@ -6030,10 +5981,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>458</v>
+      </c>
+      <c r="X57" t="s">
+        <v>459</v>
+      </c>
       <c r="Y57" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
@@ -6046,49 +6001,49 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -6100,56 +6055,56 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52126</v>
       </c>
-      <c r="B59" t="n">
-        <v>19614</v>
-      </c>
-      <c r="C59" t="s">
-        <v>538</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>81</v>
+      </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
         <v>3</v>
@@ -6159,7 +6114,7 @@
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6167,121 +6122,133 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52126</v>
       </c>
-      <c r="B60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>545</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>546</v>
+        <v>498</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="J60" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="K60" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>503</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52126</v>
       </c>
-      <c r="B61" t="n">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>545</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="J61" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="K61" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>509</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
       <c r="P61" t="n">
         <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6289,7 +6256,1041 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63" t="s">
+        <v>519</v>
+      </c>
+      <c r="K63" t="s">
+        <v>520</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>522</v>
+      </c>
+      <c r="O63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>525</v>
+      </c>
+      <c r="J64" t="s">
+        <v>526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>542</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>552</v>
+      </c>
+      <c r="J68" t="s">
+        <v>553</v>
+      </c>
+      <c r="K68" t="s">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>556</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
         <v>557</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>558</v>
+      </c>
+      <c r="J69" t="s">
+        <v>559</v>
+      </c>
+      <c r="K69" t="s">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s">
+        <v>561</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>562</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>568</v>
+      </c>
+      <c r="O70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>576</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>577</v>
+      </c>
+      <c r="J72" t="s">
+        <v>578</v>
+      </c>
+      <c r="K72" t="s">
+        <v>579</v>
+      </c>
+      <c r="L72" t="s">
+        <v>580</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>581</v>
+      </c>
+      <c r="O72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>583</v>
+      </c>
+      <c r="J73" t="s">
+        <v>584</v>
+      </c>
+      <c r="K73" t="s">
+        <v>585</v>
+      </c>
+      <c r="L73" t="s">
+        <v>586</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>587</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" t="s">
+        <v>593</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>596</v>
+      </c>
+      <c r="J75" t="s">
+        <v>597</v>
+      </c>
+      <c r="K75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L75" t="s">
+        <v>599</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>601</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>602</v>
+      </c>
+      <c r="J76" t="s">
+        <v>603</v>
+      </c>
+      <c r="K76" t="s">
+        <v>604</v>
+      </c>
+      <c r="L76" t="s">
+        <v>605</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52126</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>607</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>608</v>
+      </c>
+      <c r="J77" t="s">
+        <v>609</v>
+      </c>
+      <c r="K77" t="s">
+        <v>610</v>
+      </c>
+      <c r="L77" t="s">
+        <v>611</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
